--- a/new_data/Optimized_Bundles.xlsx
+++ b/new_data/Optimized_Bundles.xlsx
@@ -249,8 +249,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:I204" headerRowCount="1">
-  <autoFilter ref="A1:I204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:I147" headerRowCount="1">
+  <autoFilter ref="A1:I147"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Order ID"/>
     <tableColumn id="2" name="Bundle No."/>
@@ -5664,7 +5664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>590</v>
@@ -5743,7 +5743,7 @@
         <v>590</v>
       </c>
       <c r="H2" t="n">
-        <v>1765.532879818595</v>
+        <v>1779.68253968254</v>
       </c>
       <c r="I2" t="inlineStr"/>
     </row>
@@ -5758,11 +5758,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1JT.145.15DWL</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -5771,7 +5771,7 @@
         <v>590</v>
       </c>
       <c r="H3" t="n">
-        <v>1765.532879818595</v>
+        <v>1779.68253968254</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -5782,15 +5782,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6VR.289.15DWL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
         <v>590</v>
@@ -5799,7 +5799,7 @@
         <v>590</v>
       </c>
       <c r="H4" t="n">
-        <v>1765.532879818595</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
         <v>590</v>
@@ -5827,7 +5827,7 @@
         <v>590</v>
       </c>
       <c r="H5" t="n">
-        <v>1761.451247165534</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -5838,15 +5838,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1JT.145.15DWL</t>
+          <t>6VR.289.15DWL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>590</v>
@@ -5855,7 +5855,7 @@
         <v>590</v>
       </c>
       <c r="H6" t="n">
-        <v>1761.451247165534</v>
+        <v>1473.015873015873</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -5866,15 +5866,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2FR.145.15DWL</t>
+          <t>6VR.145.15DWL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
         <v>590</v>
@@ -5883,7 +5883,7 @@
         <v>590</v>
       </c>
       <c r="H7" t="n">
-        <v>1761.451247165534</v>
+        <v>1473.015873015873</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -5894,15 +5894,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6VR.289.15DWL</t>
+          <t>6VR.145.15DWL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>590</v>
@@ -5911,7 +5911,7 @@
         <v>590</v>
       </c>
       <c r="H8" t="n">
-        <v>1737.324689342405</v>
+        <v>1002.902494331066</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -5922,15 +5922,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2FR.145.15DWL</t>
+          <t>2SS.145.15DWL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>590</v>
@@ -5939,7 +5939,7 @@
         <v>590</v>
       </c>
       <c r="H9" t="n">
-        <v>1737.324689342405</v>
+        <v>1002.902494331066</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -5950,21 +5950,16 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2BA.145.15OBL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pack_62Filler</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
-      </c>
       <c r="F10" t="n">
         <v>590</v>
       </c>
@@ -5972,7 +5967,7 @@
         <v>590</v>
       </c>
       <c r="H10" t="n">
-        <v>1737.324689342405</v>
+        <v>1002.902494331066</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -5983,15 +5978,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6VR.289.15DWL</t>
+          <t>2SS.145.15DWL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>590</v>
@@ -6000,7 +5995,7 @@
         <v>590</v>
       </c>
       <c r="H11" t="n">
-        <v>1528.345523809524</v>
+        <v>445.2607709750567</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -6011,15 +6006,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6VR.145.15DWL</t>
+          <t>1JT.145.15DWL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>590</v>
@@ -6028,7 +6023,7 @@
         <v>590</v>
       </c>
       <c r="H12" t="n">
-        <v>1528.345523809524</v>
+        <v>445.2607709750567</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -6039,20 +6034,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>590</v>
@@ -6061,7 +6051,7 @@
         <v>590</v>
       </c>
       <c r="H13" t="n">
-        <v>1528.345523809524</v>
+        <v>445.2607709750567</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -6072,15 +6062,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6VR.145.15DWL</t>
+          <t>2FR.145.15DWL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>590</v>
@@ -6089,7 +6079,7 @@
         <v>590</v>
       </c>
       <c r="H14" t="n">
-        <v>927.5283446712011</v>
+        <v>445.2607709750567</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -6100,15 +6090,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2SS.145.15DWL</t>
+          <t>1OC.145.15DWL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>590</v>
@@ -6117,54 +6107,26 @@
         <v>590</v>
       </c>
       <c r="H15" t="n">
-        <v>927.5283446712011</v>
+        <v>445.2607709750567</v>
       </c>
       <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SO-1013178</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1OC.145.15DWL</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>590</v>
-      </c>
-      <c r="G16" t="n">
-        <v>590</v>
-      </c>
-      <c r="H16" t="n">
-        <v>927.5283446712011</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO-1013178</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2SS.145.15DWL</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
         <v>590</v>
@@ -6173,26 +6135,26 @@
         <v>590</v>
       </c>
       <c r="H17" t="n">
-        <v>563.4065487528342</v>
+        <v>1765.532879818594</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO-1013178</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>590</v>
@@ -6201,26 +6163,26 @@
         <v>590</v>
       </c>
       <c r="H18" t="n">
-        <v>563.4065487528342</v>
+        <v>1765.532879818594</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO-1013178</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>1JTC.145.15WCD</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>590</v>
@@ -6229,26 +6191,26 @@
         <v>590</v>
       </c>
       <c r="H19" t="n">
-        <v>563.4065487528342</v>
+        <v>1765.532879818594</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO-1013178</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1OC.145.15DWL</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>590</v>
@@ -6257,31 +6219,26 @@
         <v>590</v>
       </c>
       <c r="H20" t="n">
-        <v>563.4065487528342</v>
+        <v>1345.034013605442</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO-1013178</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>1JTC.145.15WCD</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>590</v>
@@ -6290,42 +6247,65 @@
         <v>590</v>
       </c>
       <c r="H21" t="n">
-        <v>563.4065487528342</v>
+        <v>1345.034013605442</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO-1013178</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1TJT.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Pack_62Filler</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
+        <v>590</v>
+      </c>
+      <c r="G22" t="n">
+        <v>590</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1345.034013605442</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SO-1013179</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2COR1.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>590</v>
-      </c>
-      <c r="G22" t="n">
-        <v>590</v>
-      </c>
-      <c r="H22" t="n">
-        <v>563.4065487528342</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>590</v>
+      </c>
+      <c r="G23" t="n">
+        <v>590</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1345.034013605442</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6334,15 +6314,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>1JT.145.15WCD</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
         <v>590</v>
@@ -6351,7 +6331,7 @@
         <v>590</v>
       </c>
       <c r="H24" t="n">
-        <v>1788.117913832201</v>
+        <v>1345.034013605442</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -6362,16 +6342,16 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2COR2.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1TJT.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
       <c r="F25" t="n">
         <v>590</v>
       </c>
@@ -6379,42 +6359,14 @@
         <v>590</v>
       </c>
       <c r="H25" t="n">
-        <v>1788.117913832201</v>
+        <v>1345.034013605442</v>
       </c>
       <c r="I25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SO-1013179</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1JTC.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>590</v>
-      </c>
-      <c r="G26" t="n">
-        <v>590</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1788.117913832201</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -6422,11 +6374,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F27" t="n">
         <v>590</v>
@@ -6435,14 +6387,14 @@
         <v>590</v>
       </c>
       <c r="H27" t="n">
-        <v>1788.117913832201</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -6454,7 +6406,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
         <v>590</v>
@@ -6463,26 +6415,26 @@
         <v>590</v>
       </c>
       <c r="H28" t="n">
-        <v>1330.604979591837</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F29" t="n">
         <v>590</v>
@@ -6491,26 +6443,26 @@
         <v>590</v>
       </c>
       <c r="H29" t="n">
-        <v>1330.604979591837</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2COR1.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>590</v>
@@ -6519,26 +6471,26 @@
         <v>590</v>
       </c>
       <c r="H30" t="n">
-        <v>1330.604979591837</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1JT.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
         <v>590</v>
@@ -6547,26 +6499,26 @@
         <v>590</v>
       </c>
       <c r="H31" t="n">
-        <v>1330.604979591837</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1JTC.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F32" t="n">
         <v>590</v>
@@ -6575,26 +6527,26 @@
         <v>590</v>
       </c>
       <c r="H32" t="n">
-        <v>1330.604979591837</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2COR2.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
         <v>590</v>
@@ -6603,26 +6555,26 @@
         <v>590</v>
       </c>
       <c r="H33" t="n">
-        <v>1330.604979591837</v>
+        <v>1339.863945578231</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2SS.145.15WCD</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F34" t="n">
         <v>590</v>
@@ -6631,31 +6583,26 @@
         <v>590</v>
       </c>
       <c r="H34" t="n">
-        <v>1330.604979591837</v>
+        <v>1339.863945578231</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>590</v>
@@ -6664,31 +6611,26 @@
         <v>590</v>
       </c>
       <c r="H35" t="n">
-        <v>1330.604979591837</v>
+        <v>1339.863945578231</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>3VP.145.15WCD</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
         <v>590</v>
@@ -6697,9 +6639,37 @@
         <v>590</v>
       </c>
       <c r="H36" t="n">
-        <v>1330.604979591837</v>
+        <v>1339.863945578231</v>
       </c>
       <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SO-1013206</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3VP.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>590</v>
+      </c>
+      <c r="G37" t="n">
+        <v>590</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1187.845804988662</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6708,15 +6678,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F38" t="n">
         <v>590</v>
@@ -6725,7 +6695,7 @@
         <v>590</v>
       </c>
       <c r="H38" t="n">
-        <v>1769.795918367348</v>
+        <v>1187.845804988662</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -6736,15 +6706,15 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>JT23.145.15WCD</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F39" t="n">
         <v>590</v>
@@ -6753,7 +6723,7 @@
         <v>590</v>
       </c>
       <c r="H39" t="n">
-        <v>1769.795918367348</v>
+        <v>1187.845804988662</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -6764,16 +6734,16 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2COR1.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>6VR.289.15WCD</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>34</v>
-      </c>
       <c r="F40" t="n">
         <v>590</v>
       </c>
@@ -6781,7 +6751,7 @@
         <v>590</v>
       </c>
       <c r="H40" t="n">
-        <v>1769.795918367348</v>
+        <v>1187.845804988662</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -6792,16 +6762,16 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2BA.145.15OBL</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>2</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1TJT.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>4</v>
-      </c>
       <c r="F41" t="n">
         <v>590</v>
       </c>
@@ -6809,7 +6779,7 @@
         <v>590</v>
       </c>
       <c r="H41" t="n">
-        <v>1769.795918367348</v>
+        <v>1187.845804988662</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -6820,15 +6790,15 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F42" t="n">
         <v>590</v>
@@ -6837,7 +6807,7 @@
         <v>590</v>
       </c>
       <c r="H42" t="n">
-        <v>1769.795918367348</v>
+        <v>1187.845804988662</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -6848,15 +6818,15 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F43" t="n">
         <v>590</v>
@@ -6865,7 +6835,7 @@
         <v>590</v>
       </c>
       <c r="H43" t="n">
-        <v>1769.795918367348</v>
+        <v>888.1632653061224</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -6876,15 +6846,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>2OFFC.145.15WCD</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
         <v>590</v>
@@ -6893,7 +6863,7 @@
         <v>590</v>
       </c>
       <c r="H44" t="n">
-        <v>1769.795918367348</v>
+        <v>888.1632653061224</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -6904,15 +6874,15 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>2TB.145.15WCD</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F45" t="n">
         <v>590</v>
@@ -6921,7 +6891,7 @@
         <v>590</v>
       </c>
       <c r="H45" t="n">
-        <v>1769.795918367348</v>
+        <v>888.1632653061224</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -6932,15 +6902,15 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>590</v>
@@ -6949,7 +6919,7 @@
         <v>590</v>
       </c>
       <c r="H46" t="n">
-        <v>1769.795918367348</v>
+        <v>888.1632653061224</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -6960,11 +6930,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>2TB.145.15WCD</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -6977,7 +6947,7 @@
         <v>590</v>
       </c>
       <c r="H47" t="n">
-        <v>1769.795918367348</v>
+        <v>80.54421768707482</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -6988,15 +6958,15 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>2FR.145.15WCD</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>590</v>
@@ -7005,7 +6975,7 @@
         <v>590</v>
       </c>
       <c r="H48" t="n">
-        <v>1769.795918367348</v>
+        <v>80.54421768707482</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -7016,15 +6986,15 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>2COR2.145.15WCD</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>590</v>
@@ -7033,7 +7003,7 @@
         <v>590</v>
       </c>
       <c r="H49" t="n">
-        <v>1769.795918367348</v>
+        <v>80.54421768707482</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -7044,15 +7014,15 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>1OC.145.15WCD</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>590</v>
@@ -7061,54 +7031,26 @@
         <v>590</v>
       </c>
       <c r="H50" t="n">
-        <v>1427.120181405895</v>
+        <v>80.54421768707482</v>
       </c>
       <c r="I50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SO-1013206</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2SS.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>22</v>
-      </c>
-      <c r="F51" t="n">
-        <v>590</v>
-      </c>
-      <c r="G51" t="n">
-        <v>590</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1427.120181405895</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>6VR.289.15DNW</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F52" t="n">
         <v>590</v>
@@ -7117,26 +7059,26 @@
         <v>590</v>
       </c>
       <c r="H52" t="n">
-        <v>1427.120181405895</v>
+        <v>1782.222222222222</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2SS.145.15WCD</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
         <v>590</v>
@@ -7145,26 +7087,26 @@
         <v>590</v>
       </c>
       <c r="H53" t="n">
-        <v>1109.659863945577</v>
+        <v>1782.222222222222</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3VP.145.15WCD</t>
+          <t>6VR.289.15DNW</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F54" t="n">
         <v>590</v>
@@ -7173,26 +7115,26 @@
         <v>590</v>
       </c>
       <c r="H54" t="n">
-        <v>1109.659863945577</v>
+        <v>1593.650793650794</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>2TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F55" t="n">
         <v>590</v>
@@ -7201,26 +7143,26 @@
         <v>590</v>
       </c>
       <c r="H55" t="n">
-        <v>1109.659863945577</v>
+        <v>1593.650793650794</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JT23.145.15WCD</t>
+          <t>1TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
         <v>590</v>
@@ -7229,26 +7171,26 @@
         <v>590</v>
       </c>
       <c r="H56" t="n">
-        <v>1109.659863945577</v>
+        <v>1593.650793650794</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2COR1.145.15WCD</t>
+          <t>1SJT.145.15DNW</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
         <v>590</v>
@@ -7257,26 +7199,26 @@
         <v>590</v>
       </c>
       <c r="H57" t="n">
-        <v>1109.659863945577</v>
+        <v>1593.650793650794</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>2TB.145.15DNW</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
         <v>590</v>
@@ -7285,26 +7227,26 @@
         <v>590</v>
       </c>
       <c r="H58" t="n">
-        <v>1109.659863945577</v>
+        <v>1593.650793650794</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JT23C.145.15WCD</t>
+          <t>2TB.145.15DNW</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>590</v>
@@ -7313,54 +7255,26 @@
         <v>590</v>
       </c>
       <c r="H59" t="n">
-        <v>1109.659863945577</v>
+        <v>49.52380952380952</v>
       </c>
       <c r="I59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SO-1013206</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>JT23C.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>52</v>
-      </c>
-      <c r="F60" t="n">
-        <v>590</v>
-      </c>
-      <c r="G60" t="n">
-        <v>590</v>
-      </c>
-      <c r="H60" t="n">
-        <v>943.4920634920611</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2OFFC.145.15WCD</t>
+          <t>6PSP.289.15LCY</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
         <v>590</v>
@@ -7369,26 +7283,26 @@
         <v>590</v>
       </c>
       <c r="H61" t="n">
-        <v>943.4920634920611</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>590</v>
@@ -7397,26 +7311,26 @@
         <v>590</v>
       </c>
       <c r="H62" t="n">
-        <v>943.4920634920611</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2TB.145.15WCD</t>
+          <t>2X8LLHD.289.15LCY</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>590</v>
@@ -7425,22 +7339,22 @@
         <v>590</v>
       </c>
       <c r="H63" t="n">
-        <v>943.4920634920611</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2TB.145.15WCD</t>
+          <t>1TJT.145.15LCY</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -7453,26 +7367,26 @@
         <v>590</v>
       </c>
       <c r="H64" t="n">
-        <v>116.0902811791384</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2FR.145.15WCD</t>
+          <t>JT23.145.15LCY</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>590</v>
@@ -7481,26 +7395,26 @@
         <v>590</v>
       </c>
       <c r="H65" t="n">
-        <v>116.0902811791384</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2COR2.145.15WCD</t>
+          <t>JT23C.145.15LCY</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
         <v>590</v>
@@ -7509,26 +7423,26 @@
         <v>590</v>
       </c>
       <c r="H66" t="n">
-        <v>116.0902811791384</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1OC.145.15WCD</t>
+          <t>2TB.145.15LCY</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>590</v>
@@ -7537,31 +7451,26 @@
         <v>590</v>
       </c>
       <c r="H67" t="n">
-        <v>116.0902811791384</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>590</v>
@@ -7570,47 +7479,42 @@
         <v>590</v>
       </c>
       <c r="H68" t="n">
-        <v>116.0902811791384</v>
+        <v>1144.580498866213</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>SO-1013206</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>10</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Pack_62Filler</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>590</v>
-      </c>
-      <c r="G69" t="n">
-        <v>590</v>
-      </c>
-      <c r="H69" t="n">
-        <v>116.0902811791384</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SO-1013210</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6VR.145.15LNW</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>24</v>
+      </c>
+      <c r="F70" t="n">
+        <v>590</v>
+      </c>
+      <c r="G70" t="n">
+        <v>590</v>
+      </c>
+      <c r="H70" t="n">
+        <v>729.2517006802721</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -7618,11 +7522,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6VR.289.15DNW</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>590</v>
@@ -7631,14 +7535,14 @@
         <v>590</v>
       </c>
       <c r="H71" t="n">
-        <v>1779.954648526079</v>
+        <v>729.2517006802721</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -7646,11 +7550,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2TJT.145.15DNW</t>
+          <t>2SS.145.15LNW</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>590</v>
@@ -7659,14 +7563,14 @@
         <v>590</v>
       </c>
       <c r="H72" t="n">
-        <v>1779.954648526079</v>
+        <v>729.2517006802721</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -7674,11 +7578,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>1TJT.145.15LNW</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>590</v>
@@ -7687,26 +7591,26 @@
         <v>590</v>
       </c>
       <c r="H73" t="n">
-        <v>1779.954648526079</v>
+        <v>729.2517006802721</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>6VR.289.15DNW</t>
+          <t>JT23.145.15LNW</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>590</v>
@@ -7715,26 +7619,26 @@
         <v>590</v>
       </c>
       <c r="H74" t="n">
-        <v>1594.648526077101</v>
+        <v>729.2517006802721</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2TJT.145.15DNW</t>
+          <t>JT23C.145.15LNW</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>590</v>
@@ -7743,26 +7647,26 @@
         <v>590</v>
       </c>
       <c r="H75" t="n">
-        <v>1594.648526077101</v>
+        <v>729.2517006802721</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1TJT.145.15DNW</t>
+          <t>2TB.145.15LNW</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>590</v>
@@ -7771,54 +7675,26 @@
         <v>590</v>
       </c>
       <c r="H76" t="n">
-        <v>1594.648526077101</v>
+        <v>729.2517006802721</v>
       </c>
       <c r="I76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SO-1013190</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1SJT.145.15DNW</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>590</v>
-      </c>
-      <c r="G77" t="n">
-        <v>590</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1594.648526077101</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2TB.145.15DNW</t>
+          <t>6VR.289.15DWO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F78" t="n">
         <v>590</v>
@@ -7827,18 +7703,18 @@
         <v>590</v>
       </c>
       <c r="H78" t="n">
-        <v>1594.648526077101</v>
+        <v>1782.222222222222</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -7846,7 +7722,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>590</v>
@@ -7855,26 +7731,26 @@
         <v>590</v>
       </c>
       <c r="H79" t="n">
-        <v>1594.648526077101</v>
+        <v>1782.222222222222</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2TB.145.15DNW</t>
+          <t>6VR.289.15DWO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
         <v>590</v>
@@ -7883,26 +7759,26 @@
         <v>590</v>
       </c>
       <c r="H80" t="n">
-        <v>104.2216507936508</v>
+        <v>1373.605442176871</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6V.289.15ISL</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F81" t="n">
         <v>590</v>
@@ -7911,31 +7787,26 @@
         <v>590</v>
       </c>
       <c r="H81" t="n">
-        <v>104.2216507936508</v>
+        <v>1373.605442176871</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>JT23.145.15DWO</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>22</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>590</v>
@@ -7944,31 +7815,26 @@
         <v>590</v>
       </c>
       <c r="H82" t="n">
-        <v>104.2216507936508</v>
+        <v>1373.605442176871</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>JT23.145.15ISL</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>590</v>
@@ -7977,26 +7843,54 @@
         <v>590</v>
       </c>
       <c r="H83" t="n">
-        <v>104.2216507936508</v>
+        <v>1373.605442176871</v>
       </c>
       <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SO-1013111</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2COR1.145.15ISL</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>12</v>
+      </c>
+      <c r="F84" t="n">
+        <v>590</v>
+      </c>
+      <c r="G84" t="n">
+        <v>590</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1373.605442176871</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>6PSP.289.15LCY</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>590</v>
@@ -8005,26 +7899,26 @@
         <v>590</v>
       </c>
       <c r="H85" t="n">
-        <v>1152.278498866213</v>
+        <v>1373.605442176871</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2X8LLHD.289.15LCY</t>
+          <t>JT23C.145.15DWO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F86" t="n">
         <v>590</v>
@@ -8033,26 +7927,26 @@
         <v>590</v>
       </c>
       <c r="H86" t="n">
-        <v>1152.278498866213</v>
+        <v>1373.605442176871</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1TJT.145.15LCY</t>
+          <t>2TB.145.15DWO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>590</v>
@@ -8061,26 +7955,26 @@
         <v>590</v>
       </c>
       <c r="H87" t="n">
-        <v>1152.278498866213</v>
+        <v>1373.605442176871</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JT23.145.15LCY</t>
+          <t>2TB.145.15DWO</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
         <v>590</v>
@@ -8089,26 +7983,26 @@
         <v>590</v>
       </c>
       <c r="H88" t="n">
-        <v>1152.278498866213</v>
+        <v>193.015873015873</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JT23C.145.15LCY</t>
+          <t>2FR.145.15DWO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>590</v>
@@ -8117,26 +8011,26 @@
         <v>590</v>
       </c>
       <c r="H89" t="n">
-        <v>1152.278498866213</v>
+        <v>193.015873015873</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2TB.145.15LCY</t>
+          <t>2COR2.145.15ISL</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F90" t="n">
         <v>590</v>
@@ -8145,42 +8039,14 @@
         <v>590</v>
       </c>
       <c r="H90" t="n">
-        <v>1152.278498866213</v>
+        <v>193.015873015873</v>
       </c>
       <c r="I90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SO-1013166</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>TGBJKIT</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>590</v>
-      </c>
-      <c r="G91" t="n">
-        <v>590</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1152.278498866213</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -8188,11 +8054,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F92" t="n">
         <v>590</v>
@@ -8201,14 +8067,14 @@
         <v>590</v>
       </c>
       <c r="H92" t="n">
-        <v>1152.278498866213</v>
+        <v>1830.385487528345</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -8216,16 +8082,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
+        <v>12</v>
       </c>
       <c r="F93" t="n">
         <v>590</v>
@@ -8234,31 +8095,26 @@
         <v>590</v>
       </c>
       <c r="H93" t="n">
-        <v>1152.278498866213</v>
+        <v>1830.385487528345</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
+        <v>34</v>
       </c>
       <c r="F94" t="n">
         <v>590</v>
@@ -8267,26 +8123,54 @@
         <v>590</v>
       </c>
       <c r="H94" t="n">
-        <v>1152.278498866213</v>
+        <v>1830.385487528345</v>
       </c>
       <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SO-1013148</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2BTBSS.145.15OBL</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>12</v>
+      </c>
+      <c r="F95" t="n">
+        <v>590</v>
+      </c>
+      <c r="G95" t="n">
+        <v>590</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1830.385487528345</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6VR.145.15LNW</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F96" t="n">
         <v>590</v>
@@ -8295,26 +8179,26 @@
         <v>590</v>
       </c>
       <c r="H96" t="n">
-        <v>741.0277006802717</v>
+        <v>1830.385487528345</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2SS.145.15LNW</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F97" t="n">
         <v>590</v>
@@ -8323,26 +8207,26 @@
         <v>590</v>
       </c>
       <c r="H97" t="n">
-        <v>741.0277006802717</v>
+        <v>1830.385487528345</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1TJT.145.15LNW</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F98" t="n">
         <v>590</v>
@@ -8351,27 +8235,27 @@
         <v>590</v>
       </c>
       <c r="H98" t="n">
-        <v>741.0277006802717</v>
+        <v>1742.857142857143</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B99" t="n">
+        <v>4</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2BTBSS.145.15OBL</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>1</v>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>JT23.145.15LNW</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>4</v>
-      </c>
       <c r="F99" t="n">
         <v>590</v>
       </c>
@@ -8379,26 +8263,26 @@
         <v>590</v>
       </c>
       <c r="H99" t="n">
-        <v>741.0277006802717</v>
+        <v>1742.857142857143</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>JT23C.145.15LNW</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
         <v>590</v>
@@ -8407,26 +8291,26 @@
         <v>590</v>
       </c>
       <c r="H100" t="n">
-        <v>741.0277006802717</v>
+        <v>1742.857142857143</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2TB.145.15LNW</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F101" t="n">
         <v>590</v>
@@ -8435,26 +8319,26 @@
         <v>590</v>
       </c>
       <c r="H101" t="n">
-        <v>741.0277006802717</v>
+        <v>1735.147392290249</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F102" t="n">
         <v>590</v>
@@ -8463,31 +8347,26 @@
         <v>590</v>
       </c>
       <c r="H102" t="n">
-        <v>741.0277006802717</v>
+        <v>1735.147392290249</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
+        <v>34</v>
       </c>
       <c r="F103" t="n">
         <v>590</v>
@@ -8496,31 +8375,26 @@
         <v>590</v>
       </c>
       <c r="H103" t="n">
-        <v>741.0277006802717</v>
+        <v>1735.147392290249</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
+        <v>9</v>
       </c>
       <c r="F104" t="n">
         <v>590</v>
@@ -8529,26 +8403,54 @@
         <v>590</v>
       </c>
       <c r="H104" t="n">
-        <v>741.0277006802717</v>
+        <v>1735.147392290249</v>
       </c>
       <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SO-1013148</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>6VR.289.15LBB</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>35</v>
+      </c>
+      <c r="F105" t="n">
+        <v>590</v>
+      </c>
+      <c r="G105" t="n">
+        <v>590</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1782.131519274376</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>6VR.289.15DWO</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
         <v>590</v>
@@ -8557,26 +8459,26 @@
         <v>590</v>
       </c>
       <c r="H106" t="n">
-        <v>1771.972789115648</v>
+        <v>1782.131519274376</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>JT23.145.15DWO</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
         <v>590</v>
@@ -8585,26 +8487,26 @@
         <v>590</v>
       </c>
       <c r="H107" t="n">
-        <v>1771.972789115648</v>
+        <v>1782.131519274376</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>JT23.145.15ISL</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F108" t="n">
         <v>590</v>
@@ -8613,26 +8515,26 @@
         <v>590</v>
       </c>
       <c r="H108" t="n">
-        <v>1771.972789115648</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F109" t="n">
         <v>590</v>
@@ -8641,26 +8543,26 @@
         <v>590</v>
       </c>
       <c r="H109" t="n">
-        <v>1771.972789115648</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6VR.289.15DWO</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F110" t="n">
         <v>590</v>
@@ -8669,22 +8571,22 @@
         <v>590</v>
       </c>
       <c r="H110" t="n">
-        <v>1399.092970521542</v>
+        <v>1777.777777777778</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>6V.289.15ISL</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -8697,26 +8599,26 @@
         <v>590</v>
       </c>
       <c r="H111" t="n">
-        <v>1399.092970521542</v>
+        <v>1324.444444444444</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2COR1.145.15ISL</t>
+          <t>3V.145.15LBB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F112" t="n">
         <v>590</v>
@@ -8725,26 +8627,26 @@
         <v>590</v>
       </c>
       <c r="H112" t="n">
-        <v>1399.092970521542</v>
+        <v>1324.444444444444</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>590</v>
@@ -8753,26 +8655,26 @@
         <v>590</v>
       </c>
       <c r="H113" t="n">
-        <v>1399.092970521542</v>
+        <v>1324.444444444444</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>JT23C.145.15DWO</t>
+          <t>3V.145.15LBB</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F114" t="n">
         <v>590</v>
@@ -8781,26 +8683,26 @@
         <v>590</v>
       </c>
       <c r="H114" t="n">
-        <v>1399.092970521542</v>
+        <v>1001.541950113379</v>
       </c>
       <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2TB.145.15DWO</t>
+          <t>JT23.145.15LBB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F115" t="n">
         <v>590</v>
@@ -8809,22 +8711,22 @@
         <v>590</v>
       </c>
       <c r="H115" t="n">
-        <v>1399.092970521542</v>
+        <v>1001.541950113379</v>
       </c>
       <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -8837,26 +8739,26 @@
         <v>590</v>
       </c>
       <c r="H116" t="n">
-        <v>1399.092970521542</v>
+        <v>1001.541950113379</v>
       </c>
       <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2TB.145.15DWO</t>
+          <t>JT23.145.15LBB</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F117" t="n">
         <v>590</v>
@@ -8865,27 +8767,27 @@
         <v>590</v>
       </c>
       <c r="H117" t="n">
-        <v>220.7817777777778</v>
+        <v>1212.607709750567</v>
       </c>
       <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B118" t="n">
+        <v>13</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2BA.145.15OBL</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
         <v>3</v>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2FR.145.15DWO</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>4</v>
-      </c>
       <c r="F118" t="n">
         <v>590</v>
       </c>
@@ -8893,26 +8795,26 @@
         <v>590</v>
       </c>
       <c r="H118" t="n">
-        <v>220.7817777777778</v>
+        <v>1212.607709750567</v>
       </c>
       <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2COR2.145.15ISL</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F119" t="n">
         <v>590</v>
@@ -8921,26 +8823,26 @@
         <v>590</v>
       </c>
       <c r="H119" t="n">
-        <v>220.7817777777778</v>
+        <v>1212.607709750567</v>
       </c>
       <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F120" t="n">
         <v>590</v>
@@ -8949,31 +8851,26 @@
         <v>590</v>
       </c>
       <c r="H120" t="n">
-        <v>220.7817777777778</v>
+        <v>936.7800453514739</v>
       </c>
       <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>2TB.145.15LBB</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
+        <v>42</v>
       </c>
       <c r="F121" t="n">
         <v>590</v>
@@ -8982,32 +8879,27 @@
         <v>590</v>
       </c>
       <c r="H121" t="n">
-        <v>220.7817777777778</v>
+        <v>936.7800453514739</v>
       </c>
       <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D122" t="n">
         <v>3</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
-      </c>
       <c r="F122" t="n">
         <v>590</v>
       </c>
@@ -9015,9 +8907,37 @@
         <v>590</v>
       </c>
       <c r="H122" t="n">
-        <v>220.7817777777778</v>
+        <v>936.7800453514739</v>
       </c>
       <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SO-1013148</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>15</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2TB.145.15LBB</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>48</v>
+      </c>
+      <c r="F123" t="n">
+        <v>590</v>
+      </c>
+      <c r="G123" t="n">
+        <v>590</v>
+      </c>
+      <c r="H123" t="n">
+        <v>420.4081632653061</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,15 +8946,15 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2FR.145.15LBB</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F124" t="n">
         <v>590</v>
@@ -9043,42 +8963,14 @@
         <v>590</v>
       </c>
       <c r="H124" t="n">
-        <v>1803.900226757371</v>
+        <v>420.4081632653061</v>
       </c>
       <c r="I124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>JT23.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>590</v>
-      </c>
-      <c r="G125" t="n">
-        <v>590</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1803.900226757371</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9086,11 +8978,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F126" t="n">
         <v>590</v>
@@ -9099,26 +8991,26 @@
         <v>590</v>
       </c>
       <c r="H126" t="n">
-        <v>1803.900226757371</v>
+        <v>1749.931972789116</v>
       </c>
       <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F127" t="n">
         <v>590</v>
@@ -9127,26 +9019,26 @@
         <v>590</v>
       </c>
       <c r="H127" t="n">
-        <v>1803.900226757371</v>
+        <v>1749.931972789116</v>
       </c>
       <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>2SS.145.15ISL</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
         <v>590</v>
@@ -9155,14 +9047,14 @@
         <v>590</v>
       </c>
       <c r="H128" t="n">
-        <v>1803.900226757371</v>
+        <v>1749.931972789116</v>
       </c>
       <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9170,11 +9062,11 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F129" t="n">
         <v>590</v>
@@ -9183,26 +9075,26 @@
         <v>590</v>
       </c>
       <c r="H129" t="n">
-        <v>1803.900226757371</v>
+        <v>1492.97052154195</v>
       </c>
       <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>6VR.145.15IRW</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F130" t="n">
         <v>590</v>
@@ -9211,26 +9103,26 @@
         <v>590</v>
       </c>
       <c r="H130" t="n">
-        <v>1803.900226757371</v>
+        <v>1492.97052154195</v>
       </c>
       <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>2SS.145.15ISL</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F131" t="n">
         <v>590</v>
@@ -9239,14 +9131,14 @@
         <v>590</v>
       </c>
       <c r="H131" t="n">
-        <v>1803.900226757371</v>
+        <v>1492.97052154195</v>
       </c>
       <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9254,11 +9146,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>2SS.145.15ISL</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>590</v>
@@ -9267,26 +9159,26 @@
         <v>590</v>
       </c>
       <c r="H132" t="n">
-        <v>1803.900226757371</v>
+        <v>411.4285714285714</v>
       </c>
       <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>JT23.145.15IRW</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F133" t="n">
         <v>590</v>
@@ -9295,26 +9187,26 @@
         <v>590</v>
       </c>
       <c r="H133" t="n">
-        <v>1803.900226757371</v>
+        <v>411.4285714285714</v>
       </c>
       <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>JT23.145.15ISL</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>590</v>
@@ -9323,26 +9215,26 @@
         <v>590</v>
       </c>
       <c r="H134" t="n">
-        <v>1803.900226757371</v>
+        <v>411.4285714285714</v>
       </c>
       <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>2COR1.145.15IRW</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
         <v>590</v>
@@ -9351,26 +9243,26 @@
         <v>590</v>
       </c>
       <c r="H135" t="n">
-        <v>1803.900226757371</v>
+        <v>411.4285714285714</v>
       </c>
       <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2FR.145.15ISL</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F136" t="n">
         <v>590</v>
@@ -9379,26 +9271,26 @@
         <v>590</v>
       </c>
       <c r="H136" t="n">
-        <v>1803.900226757371</v>
+        <v>411.4285714285714</v>
       </c>
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>2COR2.145.15IRW</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F137" t="n">
         <v>590</v>
@@ -9407,54 +9299,26 @@
         <v>590</v>
       </c>
       <c r="H137" t="n">
-        <v>1803.900226757371</v>
+        <v>411.4285714285714</v>
       </c>
       <c r="I137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>5</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2BTBSS.145.15OBL</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>590</v>
-      </c>
-      <c r="G138" t="n">
-        <v>590</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1803.900226757371</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013129</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>6VR.145.15WCD</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F139" t="n">
         <v>590</v>
@@ -9463,27 +9327,27 @@
         <v>590</v>
       </c>
       <c r="H139" t="n">
-        <v>1803.900226757371</v>
+        <v>892.6984126984127</v>
       </c>
       <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013129</t>
         </is>
       </c>
       <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CLIP.N100</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
         <v>6</v>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>JT23.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>4</v>
-      </c>
       <c r="F140" t="n">
         <v>590</v>
       </c>
@@ -9491,26 +9355,26 @@
         <v>590</v>
       </c>
       <c r="H140" t="n">
-        <v>1803.900226757371</v>
+        <v>892.6984126984127</v>
       </c>
       <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013129</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>6VR.145.15WCD</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F141" t="n">
         <v>590</v>
@@ -9519,54 +9383,26 @@
         <v>590</v>
       </c>
       <c r="H141" t="n">
-        <v>1803.900226757371</v>
+        <v>126.984126984127</v>
       </c>
       <c r="I141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>7</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>34</v>
-      </c>
-      <c r="F142" t="n">
-        <v>590</v>
-      </c>
-      <c r="G142" t="n">
-        <v>590</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1803.900226757371</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013131</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>6VR.289.15BAS</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F143" t="n">
         <v>590</v>
@@ -9575,26 +9411,26 @@
         <v>590</v>
       </c>
       <c r="H143" t="n">
-        <v>1803.900226757371</v>
+        <v>1220.952380952381</v>
       </c>
       <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013131</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
         <v>590</v>
@@ -9603,54 +9439,26 @@
         <v>590</v>
       </c>
       <c r="H144" t="n">
-        <v>1803.900226757371</v>
+        <v>1220.952380952381</v>
       </c>
       <c r="I144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>8</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>34</v>
-      </c>
-      <c r="F145" t="n">
-        <v>590</v>
-      </c>
-      <c r="G145" t="n">
-        <v>590</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1803.900226757371</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013133</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>6VR.289.15BAS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F146" t="n">
         <v>590</v>
@@ -9659,26 +9467,26 @@
         <v>590</v>
       </c>
       <c r="H146" t="n">
-        <v>1803.900226757371</v>
+        <v>1220.952380952381</v>
       </c>
       <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013133</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F147" t="n">
         <v>590</v>
@@ -9687,1528 +9495,9 @@
         <v>590</v>
       </c>
       <c r="H147" t="n">
-        <v>1803.900226757371</v>
+        <v>1220.952380952381</v>
       </c>
       <c r="I147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>9</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>34</v>
-      </c>
-      <c r="F148" t="n">
-        <v>590</v>
-      </c>
-      <c r="G148" t="n">
-        <v>590</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1803.900226757371</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>9</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>JT23.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>590</v>
-      </c>
-      <c r="G149" t="n">
-        <v>590</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1803.900226757371</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>9</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2BTBSS.145.15OBL</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>590</v>
-      </c>
-      <c r="G150" t="n">
-        <v>590</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1803.900226757371</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>10</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>34</v>
-      </c>
-      <c r="F151" t="n">
-        <v>590</v>
-      </c>
-      <c r="G151" t="n">
-        <v>590</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1780.498866213153</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>10</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>JT23.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>590</v>
-      </c>
-      <c r="G152" t="n">
-        <v>590</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1780.498866213153</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>10</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2BTBSS.145.15OBL</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>590</v>
-      </c>
-      <c r="G153" t="n">
-        <v>590</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1780.498866213153</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>10</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>TGBJKIT</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>590</v>
-      </c>
-      <c r="G154" t="n">
-        <v>590</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1780.498866213153</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>10</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>1</v>
-      </c>
-      <c r="F155" t="n">
-        <v>590</v>
-      </c>
-      <c r="G155" t="n">
-        <v>590</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1780.498866213153</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>11</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>20</v>
-      </c>
-      <c r="F156" t="n">
-        <v>590</v>
-      </c>
-      <c r="G156" t="n">
-        <v>590</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1385.034013605441</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>11</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>3V.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>30</v>
-      </c>
-      <c r="F157" t="n">
-        <v>590</v>
-      </c>
-      <c r="G157" t="n">
-        <v>590</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1385.034013605441</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>11</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>TGBJKIT</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>2</v>
-      </c>
-      <c r="F158" t="n">
-        <v>590</v>
-      </c>
-      <c r="G158" t="n">
-        <v>590</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1385.034013605441</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>12</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>3V.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>66</v>
-      </c>
-      <c r="F159" t="n">
-        <v>590</v>
-      </c>
-      <c r="G159" t="n">
-        <v>590</v>
-      </c>
-      <c r="H159" t="n">
-        <v>926.167800453513</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>12</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>JT23.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>11</v>
-      </c>
-      <c r="F160" t="n">
-        <v>590</v>
-      </c>
-      <c r="G160" t="n">
-        <v>590</v>
-      </c>
-      <c r="H160" t="n">
-        <v>926.167800453513</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>12</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>2</v>
-      </c>
-      <c r="F161" t="n">
-        <v>590</v>
-      </c>
-      <c r="G161" t="n">
-        <v>590</v>
-      </c>
-      <c r="H161" t="n">
-        <v>926.167800453513</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>13</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>JT23.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>42</v>
-      </c>
-      <c r="F162" t="n">
-        <v>590</v>
-      </c>
-      <c r="G162" t="n">
-        <v>590</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1291.247165532879</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>13</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2BA.145.15OBL</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>3</v>
-      </c>
-      <c r="F163" t="n">
-        <v>590</v>
-      </c>
-      <c r="G163" t="n">
-        <v>590</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1291.247165532879</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>13</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>JT23C.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>84</v>
-      </c>
-      <c r="F164" t="n">
-        <v>590</v>
-      </c>
-      <c r="G164" t="n">
-        <v>590</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1291.247165532879</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>13</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>590</v>
-      </c>
-      <c r="G165" t="n">
-        <v>590</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1291.247165532879</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>14</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>JT23C.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>29</v>
-      </c>
-      <c r="F166" t="n">
-        <v>590</v>
-      </c>
-      <c r="G166" t="n">
-        <v>590</v>
-      </c>
-      <c r="H166" t="n">
-        <v>820.408163265304</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>14</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>CLIP.N1500</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>3</v>
-      </c>
-      <c r="F167" t="n">
-        <v>590</v>
-      </c>
-      <c r="G167" t="n">
-        <v>590</v>
-      </c>
-      <c r="H167" t="n">
-        <v>820.408163265304</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>14</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>2TB.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>62</v>
-      </c>
-      <c r="F168" t="n">
-        <v>590</v>
-      </c>
-      <c r="G168" t="n">
-        <v>590</v>
-      </c>
-      <c r="H168" t="n">
-        <v>820.408163265304</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>15</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2TB.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>28</v>
-      </c>
-      <c r="F169" t="n">
-        <v>590</v>
-      </c>
-      <c r="G169" t="n">
-        <v>590</v>
-      </c>
-      <c r="H169" t="n">
-        <v>299.2755056689347</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>15</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2FR.145.15LBB</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>3</v>
-      </c>
-      <c r="F170" t="n">
-        <v>590</v>
-      </c>
-      <c r="G170" t="n">
-        <v>590</v>
-      </c>
-      <c r="H170" t="n">
-        <v>299.2755056689347</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>15</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>TGBJKIT</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>24</v>
-      </c>
-      <c r="F171" t="n">
-        <v>590</v>
-      </c>
-      <c r="G171" t="n">
-        <v>590</v>
-      </c>
-      <c r="H171" t="n">
-        <v>299.2755056689347</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>15</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>11</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
-      </c>
-      <c r="F172" t="n">
-        <v>590</v>
-      </c>
-      <c r="G172" t="n">
-        <v>590</v>
-      </c>
-      <c r="H172" t="n">
-        <v>299.2755056689347</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>15</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Pack_62Filler</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>1</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>590</v>
-      </c>
-      <c r="G173" t="n">
-        <v>590</v>
-      </c>
-      <c r="H173" t="n">
-        <v>299.2755056689347</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>6VR.289.15IRW</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>34</v>
-      </c>
-      <c r="F175" t="n">
-        <v>590</v>
-      </c>
-      <c r="G175" t="n">
-        <v>590</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1771.972789115648</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>JT23.145.15IRW</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>4</v>
-      </c>
-      <c r="F176" t="n">
-        <v>590</v>
-      </c>
-      <c r="G176" t="n">
-        <v>590</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1771.972789115648</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>1</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>4</v>
-      </c>
-      <c r="F177" t="n">
-        <v>590</v>
-      </c>
-      <c r="G177" t="n">
-        <v>590</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1771.972789115648</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>6VR.289.15IRW</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>22</v>
-      </c>
-      <c r="F178" t="n">
-        <v>590</v>
-      </c>
-      <c r="G178" t="n">
-        <v>590</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1480.997732426303</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>6VR.145.15IRW</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>8</v>
-      </c>
-      <c r="F179" t="n">
-        <v>590</v>
-      </c>
-      <c r="G179" t="n">
-        <v>590</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1480.997732426303</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>2</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>2SS.145.15ISL</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>8</v>
-      </c>
-      <c r="F180" t="n">
-        <v>590</v>
-      </c>
-      <c r="G180" t="n">
-        <v>590</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1480.997732426303</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>JT23.145.15IRW</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>2</v>
-      </c>
-      <c r="F181" t="n">
-        <v>590</v>
-      </c>
-      <c r="G181" t="n">
-        <v>590</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1480.997732426303</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>2</v>
-      </c>
-      <c r="F182" t="n">
-        <v>590</v>
-      </c>
-      <c r="G182" t="n">
-        <v>590</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1480.997732426303</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>3</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2SS.145.15ISL</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>590</v>
-      </c>
-      <c r="G183" t="n">
-        <v>590</v>
-      </c>
-      <c r="H183" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>3</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>JT23.145.15IRW</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>22</v>
-      </c>
-      <c r="F184" t="n">
-        <v>590</v>
-      </c>
-      <c r="G184" t="n">
-        <v>590</v>
-      </c>
-      <c r="H184" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>3</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>JT23.145.15ISL</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>1</v>
-      </c>
-      <c r="F185" t="n">
-        <v>590</v>
-      </c>
-      <c r="G185" t="n">
-        <v>590</v>
-      </c>
-      <c r="H185" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>3</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>2COR1.145.15IRW</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>3</v>
-      </c>
-      <c r="F186" t="n">
-        <v>590</v>
-      </c>
-      <c r="G186" t="n">
-        <v>590</v>
-      </c>
-      <c r="H186" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>3</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>2FR.145.15ISL</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>590</v>
-      </c>
-      <c r="G187" t="n">
-        <v>590</v>
-      </c>
-      <c r="H187" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>3</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2COR2.145.15IRW</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>3</v>
-      </c>
-      <c r="F188" t="n">
-        <v>590</v>
-      </c>
-      <c r="G188" t="n">
-        <v>590</v>
-      </c>
-      <c r="H188" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>3</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>3</v>
-      </c>
-      <c r="F189" t="n">
-        <v>590</v>
-      </c>
-      <c r="G189" t="n">
-        <v>590</v>
-      </c>
-      <c r="H189" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>3</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>15</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
-      </c>
-      <c r="F190" t="n">
-        <v>590</v>
-      </c>
-      <c r="G190" t="n">
-        <v>590</v>
-      </c>
-      <c r="H190" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>3</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Pack_62Filler</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Filler Material 150x50mm</t>
-        </is>
-      </c>
-      <c r="F191" t="n">
-        <v>590</v>
-      </c>
-      <c r="G191" t="n">
-        <v>590</v>
-      </c>
-      <c r="H191" t="n">
-        <v>430.7785442176871</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>SO-1013129</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>1</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>6VR.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>34</v>
-      </c>
-      <c r="F193" t="n">
-        <v>590</v>
-      </c>
-      <c r="G193" t="n">
-        <v>590</v>
-      </c>
-      <c r="H193" t="n">
-        <v>867.3015873015876</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>SO-1013129</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>1</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>6</v>
-      </c>
-      <c r="F194" t="n">
-        <v>590</v>
-      </c>
-      <c r="G194" t="n">
-        <v>590</v>
-      </c>
-      <c r="H194" t="n">
-        <v>867.3015873015876</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>SO-1013129</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>6VR.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>6</v>
-      </c>
-      <c r="F195" t="n">
-        <v>590</v>
-      </c>
-      <c r="G195" t="n">
-        <v>590</v>
-      </c>
-      <c r="H195" t="n">
-        <v>197.6309523809524</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>SO-1013129</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>2</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>25</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
-      </c>
-      <c r="F196" t="n">
-        <v>590</v>
-      </c>
-      <c r="G196" t="n">
-        <v>590</v>
-      </c>
-      <c r="H196" t="n">
-        <v>197.6309523809524</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>SO-1013131</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>1</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>6VR.289.15BAS</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>24</v>
-      </c>
-      <c r="F198" t="n">
-        <v>590</v>
-      </c>
-      <c r="G198" t="n">
-        <v>590</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1235.432380952381</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>SO-1013131</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>1</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>3</v>
-      </c>
-      <c r="F199" t="n">
-        <v>590</v>
-      </c>
-      <c r="G199" t="n">
-        <v>590</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1235.432380952381</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>SO-1013131</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>8</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
-      </c>
-      <c r="F200" t="n">
-        <v>590</v>
-      </c>
-      <c r="G200" t="n">
-        <v>590</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1235.432380952381</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>SO-1013133</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>1</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>6VR.289.15BAS</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>24</v>
-      </c>
-      <c r="F202" t="n">
-        <v>590</v>
-      </c>
-      <c r="G202" t="n">
-        <v>590</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1235.432380952381</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>SO-1013133</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>1</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>3</v>
-      </c>
-      <c r="F203" t="n">
-        <v>590</v>
-      </c>
-      <c r="G203" t="n">
-        <v>590</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1235.432380952381</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SO-1013133</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>8</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Filler Material 100x100mm</t>
-        </is>
-      </c>
-      <c r="F204" t="n">
-        <v>590</v>
-      </c>
-      <c r="G204" t="n">
-        <v>590</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1235.432380952381</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/new_data/Optimized_Bundles.xlsx
+++ b/new_data/Optimized_Bundles.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SKU_Quantities" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="SO_Input" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Optimized_Bundles" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$C$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SKU_Quantities'!$A$1:$C$122</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -249,16 +249,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:I147" headerRowCount="1">
-  <autoFilter ref="A1:I147"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:I166" headerRowCount="1">
+  <autoFilter ref="A1:I166"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Order ID"/>
     <tableColumn id="2" name="Bundle No."/>
     <tableColumn id="3" name="SKU"/>
     <tableColumn id="4" name="Qty"/>
     <tableColumn id="5" name="SKU Description"/>
-    <tableColumn id="6" name="Bundle Total Width (mm)"/>
-    <tableColumn id="7" name="Bundle Total Height (mm)"/>
+    <tableColumn id="6" name="Bundle Actual Width (mm)"/>
+    <tableColumn id="7" name="Bundle Actual Height (mm)"/>
     <tableColumn id="8" name="Bundle Total Weight (kg)"/>
     <tableColumn id="9" name="Note"/>
   </tableColumns>
@@ -593,7 +593,7 @@
   </sheetPr>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="A1:D122"/>
     </sheetView>
   </sheetViews>
@@ -2459,8 +2459,8 @@
   </sheetPr>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5664,7 +5664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5700,12 +5700,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Bundle Total Width (mm)</t>
+          <t>Bundle Actual Width (mm)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Bundle Total Height (mm)</t>
+          <t>Bundle Actual Height (mm)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -5737,13 +5737,13 @@
         <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G2" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1779.68253968254</v>
+        <v>1813.20146031746</v>
       </c>
       <c r="I2" t="inlineStr"/>
     </row>
@@ -5762,16 +5762,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G3" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1779.68253968254</v>
+        <v>1813.20146031746</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -5793,13 +5793,13 @@
         <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1777.777777777778</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -5821,13 +5821,13 @@
         <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1777.777777777778</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -5849,13 +5849,13 @@
         <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1473.015873015873</v>
+        <v>1505.899873015873</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -5877,13 +5877,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1473.015873015873</v>
+        <v>1505.899873015873</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -5905,13 +5905,13 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G8" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1002.902494331066</v>
+        <v>1019.344494331066</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -5933,13 +5933,13 @@
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G9" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1002.902494331066</v>
+        <v>1019.344494331066</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -5961,13 +5961,13 @@
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G10" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1002.902494331066</v>
+        <v>1019.344494331066</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -5989,13 +5989,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G11" t="n">
-        <v>590</v>
+        <v>579.4</v>
       </c>
       <c r="H11" t="n">
-        <v>445.2607709750567</v>
+        <v>490.580612244898</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -6017,13 +6017,13 @@
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G12" t="n">
-        <v>590</v>
+        <v>579.4</v>
       </c>
       <c r="H12" t="n">
-        <v>445.2607709750567</v>
+        <v>490.580612244898</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G13" t="n">
-        <v>590</v>
+        <v>579.4</v>
       </c>
       <c r="H13" t="n">
-        <v>445.2607709750567</v>
+        <v>490.580612244898</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -6073,13 +6073,13 @@
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G14" t="n">
-        <v>590</v>
+        <v>579.4</v>
       </c>
       <c r="H14" t="n">
-        <v>445.2607709750567</v>
+        <v>490.580612244898</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -6098,74 +6098,84 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>579.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>490.580612244898</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SO-1013178</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>6</v>
       </c>
-      <c r="F15" t="n">
-        <v>590</v>
-      </c>
-      <c r="G15" t="n">
-        <v>590</v>
-      </c>
-      <c r="H15" t="n">
-        <v>445.2607709750567</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>579.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>490.580612244898</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO-1013179</t>
+          <t>SO-1013178</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6VR.289.15WCD</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>34</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F17" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G17" t="n">
-        <v>590</v>
+        <v>579.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1765.532879818594</v>
+        <v>490.580612244898</v>
       </c>
       <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SO-1013179</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>590</v>
-      </c>
-      <c r="G18" t="n">
-        <v>590</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1765.532879818594</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6178,20 +6188,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1JTC.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G19" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1765.532879818594</v>
+        <v>1799.051800453515</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -6202,24 +6212,24 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G20" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1345.034013605442</v>
+        <v>1799.051800453515</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -6230,7 +6240,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -6238,16 +6248,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G21" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1345.034013605442</v>
+        <v>1799.051800453515</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -6262,20 +6272,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>590</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G22" t="n">
-        <v>590</v>
+        <v>564.35</v>
       </c>
       <c r="H22" t="n">
-        <v>1345.034013605442</v>
+        <v>1383.806013605442</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -6290,20 +6300,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2COR1.145.15WCD</t>
+          <t>1JTC.145.15WCD</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>590</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G23" t="n">
-        <v>590</v>
+        <v>564.35</v>
       </c>
       <c r="H23" t="n">
-        <v>1345.034013605442</v>
+        <v>1383.806013605442</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -6318,20 +6328,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1JT.145.15WCD</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>590</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G24" t="n">
-        <v>590</v>
+        <v>564.35</v>
       </c>
       <c r="H24" t="n">
-        <v>1345.034013605442</v>
+        <v>1383.806013605442</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -6346,55 +6356,83 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2COR2.145.15WCD</t>
+          <t>2COR1.145.15WCD</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>590</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G25" t="n">
-        <v>590</v>
+        <v>564.35</v>
       </c>
       <c r="H25" t="n">
-        <v>1345.034013605442</v>
+        <v>1383.806013605442</v>
       </c>
       <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SO-1013179</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1JT.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>584.2000000000002</v>
+      </c>
+      <c r="G26" t="n">
+        <v>564.35</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1383.806013605442</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2COR2.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>6VR.289.15WCD</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>35</v>
-      </c>
       <c r="F27" t="n">
-        <v>590</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G27" t="n">
-        <v>590</v>
+        <v>564.35</v>
       </c>
       <c r="H27" t="n">
-        <v>1777.777777777778</v>
+        <v>1383.806013605442</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -6402,78 +6440,60 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>590</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G28" t="n">
-        <v>590</v>
+        <v>564.35</v>
       </c>
       <c r="H28" t="n">
-        <v>1777.777777777778</v>
+        <v>1383.806013605442</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO-1013206</t>
+          <t>SO-1013179</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6VR.289.15WCD</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>590</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G29" t="n">
-        <v>590</v>
+        <v>564.35</v>
       </c>
       <c r="H29" t="n">
-        <v>1777.777777777778</v>
+        <v>1383.806013605442</v>
       </c>
       <c r="I29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SO-1013206</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>6VR.289.15WCD</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>35</v>
-      </c>
-      <c r="F30" t="n">
-        <v>590</v>
-      </c>
-      <c r="G30" t="n">
-        <v>590</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1777.777777777778</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6482,7 +6502,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -6493,13 +6513,13 @@
         <v>35</v>
       </c>
       <c r="F31" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1777.777777777778</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -6510,7 +6530,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6521,13 +6541,13 @@
         <v>35</v>
       </c>
       <c r="F32" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1777.777777777778</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -6538,7 +6558,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -6546,16 +6566,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F33" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1339.863945578231</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -6566,24 +6586,24 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2SS.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F34" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1339.863945578231</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -6594,24 +6614,24 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F35" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H35" t="n">
-        <v>1339.863945578231</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -6622,24 +6642,24 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3VP.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F36" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H36" t="n">
-        <v>1339.863945578231</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -6650,24 +6670,24 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3VP.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F37" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G37" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1187.845804988662</v>
+        <v>1372.747945578231</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -6678,24 +6698,24 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>2SS.145.15WCD</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G38" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1187.845804988662</v>
+        <v>1372.747945578231</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -6706,24 +6726,24 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JT23.145.15WCD</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G39" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1187.845804988662</v>
+        <v>1372.747945578231</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -6734,24 +6754,24 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2COR1.145.15WCD</t>
+          <t>3VP.145.15WCD</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G40" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1187.845804988662</v>
+        <v>1372.747945578231</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -6766,20 +6786,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>3VP.145.15WCD</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H41" t="n">
-        <v>1187.845804988662</v>
+        <v>1204.287804988662</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -6794,20 +6814,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JT23C.145.15WCD</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F42" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H42" t="n">
-        <v>1187.845804988662</v>
+        <v>1204.287804988662</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -6818,24 +6838,24 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JT23C.145.15WCD</t>
+          <t>JT23.145.15WCD</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F43" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H43" t="n">
-        <v>888.1632653061224</v>
+        <v>1204.287804988662</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -6846,24 +6866,24 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2OFFC.145.15WCD</t>
+          <t>2COR1.145.15WCD</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H44" t="n">
-        <v>888.1632653061224</v>
+        <v>1204.287804988662</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -6874,24 +6894,24 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2TB.145.15WCD</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H45" t="n">
-        <v>888.1632653061224</v>
+        <v>1204.287804988662</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -6902,24 +6922,24 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H46" t="n">
-        <v>888.1632653061224</v>
+        <v>1204.287804988662</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -6930,24 +6950,24 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2TB.145.15WCD</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F47" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G47" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H47" t="n">
-        <v>80.54421768707482</v>
+        <v>940.8864444444444</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -6958,24 +6978,24 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2FR.145.15WCD</t>
+          <t>2OFFC.145.15WCD</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G48" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H48" t="n">
-        <v>80.54421768707482</v>
+        <v>940.8864444444444</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -6986,24 +7006,24 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2COR2.145.15WCD</t>
+          <t>2TB.145.15WCD</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F49" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G49" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H49" t="n">
-        <v>80.54421768707482</v>
+        <v>940.8864444444444</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -7014,194 +7034,204 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CLIP.N1500</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>565.15</v>
+      </c>
+      <c r="H50" t="n">
+        <v>940.8864444444444</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SO-1013206</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>10</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1OC.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2TB.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>2</v>
       </c>
-      <c r="F50" t="n">
-        <v>590</v>
-      </c>
-      <c r="G50" t="n">
-        <v>590</v>
-      </c>
-      <c r="H50" t="n">
-        <v>80.54421768707482</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>550</v>
+      </c>
+      <c r="G51" t="n">
+        <v>576.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>134.8002811791383</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>6VR.289.15DNW</t>
+          <t>2FR.145.15WCD</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G52" t="n">
-        <v>590</v>
+        <v>576.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1782.222222222222</v>
+        <v>134.8002811791383</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2COR2.145.15WCD</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G53" t="n">
-        <v>590</v>
+        <v>576.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1782.222222222222</v>
+        <v>134.8002811791383</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1OC.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>2</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>6VR.289.15DNW</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>21</v>
-      </c>
       <c r="F54" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G54" t="n">
-        <v>590</v>
+        <v>576.2</v>
       </c>
       <c r="H54" t="n">
-        <v>1593.650793650794</v>
+        <v>134.8002811791383</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2TJT.145.15DNW</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F55" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G55" t="n">
-        <v>590</v>
+        <v>576.2</v>
       </c>
       <c r="H55" t="n">
-        <v>1593.650793650794</v>
+        <v>134.8002811791383</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1TJT.145.15DNW</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F56" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G56" t="n">
-        <v>590</v>
+        <v>576.2</v>
       </c>
       <c r="H56" t="n">
-        <v>1593.650793650794</v>
+        <v>134.8002811791383</v>
       </c>
       <c r="I56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SO-1013190</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1SJT.145.15DNW</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>590</v>
-      </c>
-      <c r="G57" t="n">
-        <v>590</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1593.650793650794</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7210,24 +7240,24 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2TB.145.15DNW</t>
+          <t>6VR.289.15DNW</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F58" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G58" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H58" t="n">
-        <v>1593.650793650794</v>
+        <v>1815.741142857143</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -7238,255 +7268,293 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2TB.145.15DNW</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G59" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H59" t="n">
-        <v>49.52380952380952</v>
+        <v>1815.741142857143</v>
       </c>
       <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SO-1013190</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>6VR.289.15DNW</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>21</v>
+      </c>
+      <c r="F60" t="n">
+        <v>571.5000000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1626.534793650794</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6PSP.289.15LCY</t>
+          <t>2TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F61" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H61" t="n">
-        <v>1144.580498866213</v>
+        <v>1626.534793650794</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>1TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H62" t="n">
-        <v>1144.580498866213</v>
+        <v>1626.534793650794</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2X8LLHD.289.15LCY</t>
+          <t>1SJT.145.15DNW</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H63" t="n">
-        <v>1144.580498866213</v>
+        <v>1626.534793650794</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1TJT.145.15LCY</t>
+          <t>2TB.145.15DNW</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H64" t="n">
-        <v>1144.580498866213</v>
+        <v>1626.534793650794</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JT23.145.15LCY</t>
+          <t>2TB.145.15DNW</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G65" t="n">
-        <v>590</v>
+        <v>576.2</v>
       </c>
       <c r="H65" t="n">
-        <v>1144.580498866213</v>
+        <v>122.5558095238095</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JT23C.145.15LCY</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F66" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G66" t="n">
-        <v>590</v>
+        <v>576.2</v>
       </c>
       <c r="H66" t="n">
-        <v>1144.580498866213</v>
+        <v>122.5558095238095</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>SO-1013190</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>550</v>
+      </c>
+      <c r="G67" t="n">
+        <v>576.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>122.5558095238095</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2TB.145.15LCY</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>590</v>
-      </c>
-      <c r="G67" t="n">
-        <v>590</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1144.580498866213</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SO-1013166</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>590</v>
-      </c>
-      <c r="G68" t="n">
-        <v>590</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1144.580498866213</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6PSP.289.15LCY</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>16</v>
+      </c>
+      <c r="F69" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>588.15</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1186.527528344671</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -7494,27 +7562,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6VR.145.15LNW</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G70" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H70" t="n">
-        <v>729.2517006802721</v>
+        <v>1186.527528344671</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -7522,27 +7590,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2X8LLHD.289.15LCY</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G71" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H71" t="n">
-        <v>729.2517006802721</v>
+        <v>1186.527528344671</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -7550,27 +7618,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2SS.145.15LNW</t>
+          <t>1TJT.145.15LCY</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G72" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H72" t="n">
-        <v>729.2517006802721</v>
+        <v>1186.527528344671</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -7578,27 +7646,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1TJT.145.15LNW</t>
+          <t>JT23.145.15LCY</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G73" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H73" t="n">
-        <v>729.2517006802721</v>
+        <v>1186.527528344671</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -7606,27 +7674,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JT23.145.15LNW</t>
+          <t>JT23C.145.15LCY</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G74" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H74" t="n">
-        <v>729.2517006802721</v>
+        <v>1186.527528344671</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -7634,27 +7702,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JT23C.145.15LNW</t>
+          <t>2TB.145.15LCY</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G75" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H75" t="n">
-        <v>729.2517006802721</v>
+        <v>1186.527528344671</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -7662,27 +7730,60 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2TB.145.15LNW</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G76" t="n">
+        <v>588.15</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1186.527528344671</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SO-1013166</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
         <v>1</v>
       </c>
-      <c r="F76" t="n">
-        <v>590</v>
-      </c>
-      <c r="G76" t="n">
-        <v>590</v>
-      </c>
-      <c r="H76" t="n">
-        <v>729.2517006802721</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G77" t="n">
+        <v>588.15</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1186.527528344671</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -7690,330 +7791,289 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>6VR.289.15DWO</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F78" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G78" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H78" t="n">
-        <v>1782.222222222222</v>
+        <v>1186.527528344671</v>
       </c>
       <c r="I78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SO-1013111</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>590</v>
-      </c>
-      <c r="G79" t="n">
-        <v>590</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1782.222222222222</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6VR.289.15DWO</t>
+          <t>6VR.145.15LNW</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F80" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G80" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H80" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>6V.289.15ISL</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G81" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H81" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JT23.145.15DWO</t>
+          <t>2SS.145.15LNW</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G82" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H82" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JT23.145.15ISL</t>
+          <t>1TJT.145.15LNW</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G83" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H83" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2COR1.145.15ISL</t>
+          <t>JT23.145.15LNW</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G84" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H84" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>JT23C.145.15LNW</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G85" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H85" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>JT23C.145.15DWO</t>
+          <t>2TB.145.15LNW</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G86" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H86" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2TB.145.15DWO</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F87" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G87" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H87" t="n">
-        <v>1373.605442176871</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2TB.145.15DWO</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F88" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G88" t="n">
-        <v>590</v>
+        <v>588.15</v>
       </c>
       <c r="H88" t="n">
-        <v>193.015873015873</v>
+        <v>759.9146213151927</v>
       </c>
       <c r="I88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SO-1013111</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2FR.145.15DWO</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>590</v>
-      </c>
-      <c r="G89" t="n">
-        <v>590</v>
-      </c>
-      <c r="H89" t="n">
-        <v>193.015873015873</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8022,87 +8082,115 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2COR2.145.15ISL</t>
+          <t>6VR.289.15DWO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F90" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G90" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H90" t="n">
-        <v>193.015873015873</v>
+        <v>1815.741142857143</v>
       </c>
       <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SO-1013111</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CLIP.N100</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>558.8</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1815.741142857143</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>6VR.289.15DWO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H92" t="n">
-        <v>1830.385487528345</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>6V.289.15ISL</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F93" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H93" t="n">
-        <v>1830.385487528345</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -8110,27 +8198,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>JT23.145.15DWO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H94" t="n">
-        <v>1830.385487528345</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -8138,302 +8226,284 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>JT23.145.15ISL</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H95" t="n">
-        <v>1830.385487528345</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2COR1.145.15ISL</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H96" t="n">
-        <v>1830.385487528345</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H97" t="n">
-        <v>1830.385487528345</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>JT23C.145.15DWO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F98" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H98" t="n">
-        <v>1742.857142857143</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2TB.145.15DWO</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>4</v>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2BTBSS.145.15OBL</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
       <c r="F99" t="n">
-        <v>590</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H99" t="n">
-        <v>1742.857142857143</v>
+        <v>1406.489442176871</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>2TB.145.15DWO</t>
         </is>
       </c>
       <c r="D100" t="n">
         <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>590</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>590</v>
+        <v>577.8</v>
       </c>
       <c r="H100" t="n">
-        <v>1742.857142857143</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2FR.145.15DWO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>590</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>590</v>
+        <v>577.8</v>
       </c>
       <c r="H101" t="n">
-        <v>1735.147392290249</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>2COR2.145.15ISL</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>590</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>590</v>
+        <v>577.8</v>
       </c>
       <c r="H102" t="n">
-        <v>1735.147392290249</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F103" t="n">
-        <v>590</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>590</v>
+        <v>577.8</v>
       </c>
       <c r="H103" t="n">
-        <v>1735.147392290249</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F104" t="n">
-        <v>590</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>590</v>
+        <v>577.8</v>
       </c>
       <c r="H104" t="n">
-        <v>1735.147392290249</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>7</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>35</v>
-      </c>
-      <c r="F105" t="n">
-        <v>590</v>
-      </c>
-      <c r="G105" t="n">
-        <v>590</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1782.131519274376</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8442,24 +8512,24 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F106" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G106" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H106" t="n">
-        <v>1782.131519274376</v>
+        <v>1872.793297052154</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -8470,24 +8540,24 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F107" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G107" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H107" t="n">
-        <v>1782.131519274376</v>
+        <v>1872.793297052154</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -8498,24 +8568,24 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F108" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G108" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H108" t="n">
-        <v>1777.777777777778</v>
+        <v>1872.793297052154</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -8526,7 +8596,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -8534,16 +8604,16 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G109" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H109" t="n">
-        <v>1777.777777777778</v>
+        <v>1863.269487528345</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -8554,24 +8624,24 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F110" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G110" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H110" t="n">
-        <v>1777.777777777778</v>
+        <v>1863.269487528345</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -8582,7 +8652,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -8590,16 +8660,16 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F111" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G111" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H111" t="n">
-        <v>1324.444444444444</v>
+        <v>1863.269487528345</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -8610,24 +8680,24 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3V.145.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F112" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G112" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H112" t="n">
-        <v>1324.444444444444</v>
+        <v>1863.269487528345</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -8638,24 +8708,24 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F113" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G113" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>1324.444444444444</v>
+        <v>1860.54839909297</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
@@ -8666,24 +8736,24 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3V.145.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G114" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>1001.541950113379</v>
+        <v>1860.54839909297</v>
       </c>
       <c r="I114" t="inlineStr"/>
     </row>
@@ -8694,24 +8764,24 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F115" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G115" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H115" t="n">
-        <v>1001.541950113379</v>
+        <v>1860.54839909297</v>
       </c>
       <c r="I115" t="inlineStr"/>
     </row>
@@ -8722,24 +8792,24 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F116" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H116" t="n">
-        <v>1001.541950113379</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I116" t="inlineStr"/>
     </row>
@@ -8750,24 +8820,24 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F117" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H117" t="n">
-        <v>1212.607709750567</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I117" t="inlineStr"/>
     </row>
@@ -8778,24 +8848,24 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F118" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G118" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H118" t="n">
-        <v>1212.607709750567</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I118" t="inlineStr"/>
     </row>
@@ -8806,24 +8876,24 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F119" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H119" t="n">
-        <v>1212.607709750567</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I119" t="inlineStr"/>
     </row>
@@ -8834,24 +8904,24 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F120" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H120" t="n">
-        <v>936.7800453514739</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I120" t="inlineStr"/>
     </row>
@@ -8862,24 +8932,24 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2TB.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F121" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H121" t="n">
-        <v>936.7800453514739</v>
+        <v>1810.661777777778</v>
       </c>
       <c r="I121" t="inlineStr"/>
     </row>
@@ -8890,24 +8960,24 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F122" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="G122" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H122" t="n">
-        <v>936.7800453514739</v>
+        <v>1290.661777777778</v>
       </c>
       <c r="I122" t="inlineStr"/>
     </row>
@@ -8918,24 +8988,24 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2TB.145.15LBB</t>
+          <t>3V.145.15LBB</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>48</v>
       </c>
       <c r="F123" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="G123" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H123" t="n">
-        <v>420.4081632653061</v>
+        <v>1290.661777777778</v>
       </c>
       <c r="I123" t="inlineStr"/>
     </row>
@@ -8946,367 +9016,405 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2FR.145.15LBB</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="G124" t="n">
-        <v>590</v>
+        <v>565.15</v>
       </c>
       <c r="H124" t="n">
-        <v>420.4081632653061</v>
+        <v>1290.661777777778</v>
       </c>
       <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SO-1013148</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>12</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3V.145.15LBB</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>48</v>
+      </c>
+      <c r="F125" t="n">
+        <v>577.85</v>
+      </c>
+      <c r="G125" t="n">
+        <v>577.85</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1089.367170068027</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>6VR.289.15IRW</t>
+          <t>JT23.145.15LBB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F126" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="G126" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H126" t="n">
-        <v>1749.931972789116</v>
+        <v>1089.367170068027</v>
       </c>
       <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F127" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="G127" t="n">
-        <v>590</v>
+        <v>577.85</v>
       </c>
       <c r="H127" t="n">
-        <v>1749.931972789116</v>
+        <v>1089.367170068027</v>
       </c>
       <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2SS.145.15ISL</t>
+          <t>JT23.145.15LBB</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F128" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>590</v>
+        <v>552.4499999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>1749.931972789116</v>
+        <v>1227.235650793651</v>
       </c>
       <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>6VR.289.15IRW</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>590</v>
+        <v>552.4499999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>1492.97052154195</v>
+        <v>1227.235650793651</v>
       </c>
       <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6VR.145.15IRW</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F130" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>590</v>
+        <v>552.4499999999999</v>
       </c>
       <c r="H130" t="n">
-        <v>1492.97052154195</v>
+        <v>1227.235650793651</v>
       </c>
       <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2SS.145.15ISL</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F131" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>590</v>
+        <v>565.1500000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>1492.97052154195</v>
+        <v>983.6075328798186</v>
       </c>
       <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2SS.145.15ISL</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F132" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>590</v>
+        <v>565.1500000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>411.4285714285714</v>
+        <v>983.6075328798186</v>
       </c>
       <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>JT23.145.15IRW</t>
+          <t>2TB.145.15LBB</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F133" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>590</v>
+        <v>565.1500000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>411.4285714285714</v>
+        <v>983.6075328798186</v>
       </c>
       <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>JT23.145.15ISL</t>
+          <t>2TB.145.15LBB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F134" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>590</v>
+        <v>552.4</v>
       </c>
       <c r="H134" t="n">
-        <v>411.4285714285714</v>
+        <v>318.9507664399093</v>
       </c>
       <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2COR1.145.15IRW</t>
+          <t>2FR.145.15LBB</t>
         </is>
       </c>
       <c r="D135" t="n">
         <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>590</v>
+        <v>552.4</v>
       </c>
       <c r="H135" t="n">
-        <v>411.4285714285714</v>
+        <v>318.9507664399093</v>
       </c>
       <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2FR.145.15ISL</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F136" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>590</v>
+        <v>552.4</v>
       </c>
       <c r="H136" t="n">
-        <v>411.4285714285714</v>
+        <v>318.9507664399093</v>
       </c>
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2COR2.145.15IRW</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F137" t="n">
-        <v>590</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>590</v>
+        <v>552.4</v>
       </c>
       <c r="H137" t="n">
-        <v>411.4285714285714</v>
+        <v>318.9507664399093</v>
       </c>
       <c r="I137" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -9314,27 +9422,27 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6VR.145.15WCD</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D139" t="n">
         <v>35</v>
       </c>
       <c r="F139" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G139" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H139" t="n">
-        <v>892.6984126984127</v>
+        <v>1817.010984126984</v>
       </c>
       <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -9346,23 +9454,23 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F140" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="G140" t="n">
-        <v>590</v>
+        <v>558.8</v>
       </c>
       <c r="H140" t="n">
-        <v>892.6984126984127</v>
+        <v>1817.010984126984</v>
       </c>
       <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -9370,134 +9478,678 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>6VR.145.15WCD</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F141" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H141" t="n">
-        <v>126.984126984127</v>
+        <v>1509.527990929705</v>
       </c>
       <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>6VR.145.15IRW</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>584.1999999999999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1509.527990929705</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO-1013131</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6VR.289.15BAS</t>
+          <t>2SS.145.15ISL</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F143" t="n">
-        <v>590</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>590</v>
+        <v>584.2</v>
       </c>
       <c r="H143" t="n">
-        <v>1220.952380952381</v>
+        <v>1509.527990929705</v>
       </c>
       <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO-1013131</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B144" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>JT23.145.15IRW</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>28</v>
+      </c>
+      <c r="F144" t="n">
+        <v>583.3999999999999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>578.5999999999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>446.8590113378685</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>JT23.145.15ISL</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>1</v>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>CLIP.N100</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>590</v>
-      </c>
-      <c r="G144" t="n">
-        <v>590</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1220.952380952381</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>583.3999999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>578.5999999999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>446.8590113378685</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO-1013133</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6VR.289.15BAS</t>
+          <t>2COR1.145.15IRW</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>590</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>590</v>
+        <v>578.5999999999999</v>
       </c>
       <c r="H146" t="n">
-        <v>1220.952380952381</v>
+        <v>446.8590113378685</v>
       </c>
       <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2FR.145.15ISL</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>583.3999999999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>578.5999999999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>446.8590113378685</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2COR2.145.15IRW</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>583.3999999999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>578.5999999999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>446.8590113378685</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>15</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>583.3999999999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>578.5999999999999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>446.8590113378685</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>583.3999999999999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>578.5999999999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>446.8590113378685</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>6VR.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>35</v>
+      </c>
+      <c r="F152" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>558.8</v>
+      </c>
+      <c r="H152" t="n">
+        <v>909.7753333333333</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CLIP.N100</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>558.8</v>
+      </c>
+      <c r="H153" t="n">
+        <v>909.7753333333333</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>6VR.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>554</v>
+      </c>
+      <c r="G154" t="n">
+        <v>577.8</v>
+      </c>
+      <c r="H154" t="n">
+        <v>191.860126984127</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>23</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>554</v>
+      </c>
+      <c r="G155" t="n">
+        <v>577.8</v>
+      </c>
+      <c r="H155" t="n">
+        <v>191.860126984127</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>554</v>
+      </c>
+      <c r="G156" t="n">
+        <v>577.8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>191.860126984127</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>6VR.289.15BAS</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>24</v>
+      </c>
+      <c r="F158" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G158" t="n">
+        <v>581</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CLIP.N100</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G159" t="n">
+        <v>581</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>10</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>581</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G161" t="n">
+        <v>581</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>SO-1013133</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B163" t="n">
         <v>1</v>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>6VR.289.15BAS</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>24</v>
+      </c>
+      <c r="F163" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G163" t="n">
+        <v>581</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SO-1013133</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>590</v>
-      </c>
-      <c r="G147" t="n">
-        <v>590</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1220.952380952381</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G164" t="n">
+        <v>581</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SO-1013133</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>10</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G165" t="n">
+        <v>581</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SO-1013133</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G166" t="n">
+        <v>581</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1274.839301587302</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/new_data/Optimized_Bundles.xlsx
+++ b/new_data/Optimized_Bundles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="SKU_Quantities" sheetId="1" state="visible" r:id="rId1"/>
@@ -90,26 +90,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,7 +224,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H117" headerRowCount="1" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:H117"/>
+  <autoFilter ref="A1:H117">
+    <filterColumn colId="0" hiddenButton="0" showButton="1">
+      <filters>
+        <filter val="SO-1013210"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:H117">
     <sortCondition ref="B1:B117"/>
   </sortState>
@@ -249,8 +249,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:I166" headerRowCount="1">
-  <autoFilter ref="A1:I166"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:I178" headerRowCount="1">
+  <autoFilter ref="A1:I178"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Order ID"/>
     <tableColumn id="2" name="Bundle No."/>
@@ -267,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,9 +307,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,26 +342,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,26 +377,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,21 +553,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:D122"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="9" min="1" max="1"/>
-    <col width="18.7109375" customWidth="1" style="9" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" style="9" min="3" max="3"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="18.6640625" customWidth="1" min="2" max="2"/>
+    <col width="13.6640625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -622,7 +588,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
@@ -632,12 +598,12 @@
           <t>1JT.145.15DWL</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" hidden="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
@@ -647,12 +613,12 @@
           <t>1JT.145.15WCD</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" hidden="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
@@ -662,12 +628,12 @@
           <t>1JTC.145.15WCD</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
@@ -677,12 +643,12 @@
           <t>1OC.145.15DWL</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="6" hidden="1">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -692,12 +658,12 @@
           <t>1OC.145.15WCD</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="7" hidden="1">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -707,12 +673,12 @@
           <t>1OC.145.15WCD</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="8" hidden="1">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
@@ -722,12 +688,12 @@
           <t>1SJT.145.15DNW</t>
         </is>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" hidden="1">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
@@ -737,12 +703,12 @@
           <t>1TJT.145.15DNW</t>
         </is>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="10" hidden="1">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
@@ -752,12 +718,12 @@
           <t>1TJT.145.15LCY</t>
         </is>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="11" hidden="1">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
@@ -767,12 +733,12 @@
           <t>1TJT.145.15LNW</t>
         </is>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="12" hidden="1">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -782,12 +748,12 @@
           <t>1TJT.145.15WCD</t>
         </is>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="13" hidden="1">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -797,12 +763,12 @@
           <t>1TJT.145.15WCD</t>
         </is>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+    <row r="14" hidden="1">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
@@ -812,12 +778,12 @@
           <t>1TJT.145.15WCD</t>
         </is>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+    <row r="15" hidden="1">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -827,12 +793,12 @@
           <t>1TJT.145.15WCD</t>
         </is>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+    <row r="16" hidden="1">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -842,12 +808,12 @@
           <t>2BA.145.15OBL</t>
         </is>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="17" hidden="1">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -857,12 +823,12 @@
           <t>2BA.145.15OBL</t>
         </is>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
@@ -872,12 +838,12 @@
           <t>2BA.145.15OBL</t>
         </is>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+    <row r="19" hidden="1">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -887,12 +853,12 @@
           <t>2BA.145.15OBL</t>
         </is>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="20" hidden="1">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -902,12 +868,12 @@
           <t>2BA.145.15OBL</t>
         </is>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="21" hidden="1">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -917,12 +883,12 @@
           <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="1" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+    <row r="22" hidden="1">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -932,12 +898,12 @@
           <t>2COR1.145.15IRW</t>
         </is>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+    <row r="23" hidden="1">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -947,12 +913,12 @@
           <t>2COR1.145.15ISL</t>
         </is>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+    <row r="24" hidden="1">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -962,12 +928,12 @@
           <t>2COR1.145.15WCD</t>
         </is>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+    <row r="25" hidden="1">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
@@ -977,12 +943,12 @@
           <t>2COR1.145.15WCD</t>
         </is>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+    <row r="26" hidden="1">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -992,12 +958,12 @@
           <t>2COR1.145.15WCD</t>
         </is>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="27" hidden="1">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -1007,12 +973,12 @@
           <t>2COR2.145.15IRW</t>
         </is>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+    <row r="28" hidden="1">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -1022,12 +988,12 @@
           <t>2COR2.145.15IRW</t>
         </is>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+    <row r="29" hidden="1">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -1037,12 +1003,12 @@
           <t>2COR2.145.15ISL</t>
         </is>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+    <row r="30" hidden="1">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1052,12 +1018,12 @@
           <t>2COR2.145.15WCD</t>
         </is>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+    <row r="31" hidden="1">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
@@ -1067,12 +1033,12 @@
           <t>2COR2.145.15WCD</t>
         </is>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+    <row r="32" hidden="1">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1082,12 +1048,12 @@
           <t>2COR2.145.15WCD</t>
         </is>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
@@ -1097,12 +1063,12 @@
           <t>2FR.145.15DWL</t>
         </is>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+    <row r="34" hidden="1">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -1112,12 +1078,12 @@
           <t>2FR.145.15DWO</t>
         </is>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+    <row r="35" hidden="1">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -1127,12 +1093,12 @@
           <t>2FR.145.15ISL</t>
         </is>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+    <row r="36" hidden="1">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -1142,12 +1108,12 @@
           <t>2FR.145.15LBB</t>
         </is>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+    <row r="37" hidden="1">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1157,12 +1123,12 @@
           <t>2FR.145.15WCD</t>
         </is>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+    <row r="38" hidden="1">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1172,12 +1138,12 @@
           <t>2FR.145.15WCD</t>
         </is>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+    <row r="39" hidden="1">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1187,12 +1153,12 @@
           <t>2OFFC.145.15WCD</t>
         </is>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+    <row r="40" hidden="1">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1202,12 +1168,12 @@
           <t>2OFFC.145.15WCD</t>
         </is>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
@@ -1217,12 +1183,12 @@
           <t>2SS.145.15DWL</t>
         </is>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="1" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+    <row r="42" hidden="1">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -1232,12 +1198,12 @@
           <t>2SS.145.15ISL</t>
         </is>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+    <row r="43" hidden="1">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
@@ -1247,12 +1213,12 @@
           <t>2SS.145.15LNW</t>
         </is>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+    <row r="44" hidden="1">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1262,12 +1228,12 @@
           <t>2SS.145.15WCD</t>
         </is>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+    <row r="45" hidden="1">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1277,12 +1243,12 @@
           <t>2SS.145.15WCD</t>
         </is>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+    <row r="46" hidden="1">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
@@ -1292,12 +1258,12 @@
           <t>2TB.145.15DNW</t>
         </is>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+    <row r="47" hidden="1">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -1307,12 +1273,12 @@
           <t>2TB.145.15DWO</t>
         </is>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+    <row r="48" hidden="1">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -1322,12 +1288,12 @@
           <t>2TB.145.15LBB</t>
         </is>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="1" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+    <row r="49" hidden="1">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
@@ -1337,12 +1303,12 @@
           <t>2TB.145.15LCY</t>
         </is>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+    <row r="50" hidden="1">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
@@ -1352,12 +1318,12 @@
           <t>2TB.145.15LNW</t>
         </is>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+    <row r="51" hidden="1">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1367,12 +1333,12 @@
           <t>2TB.145.15WCD</t>
         </is>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+    <row r="52" hidden="1">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1382,12 +1348,12 @@
           <t>2TB.145.15WCD</t>
         </is>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+    <row r="53" hidden="1">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1397,12 +1363,12 @@
           <t>2TB.145.15WCD</t>
         </is>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="1" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+    <row r="54" hidden="1">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
@@ -1412,12 +1378,12 @@
           <t>2TJT.145.15DNW</t>
         </is>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="1" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+    <row r="55" hidden="1">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
@@ -1427,12 +1393,12 @@
           <t>2X8LLHD.289.15LCY</t>
         </is>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+    <row r="56" hidden="1">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -1442,12 +1408,12 @@
           <t>3V.145.15LBB</t>
         </is>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="1" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+    <row r="57" hidden="1">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1457,12 +1423,12 @@
           <t>3VP.145.15WCD</t>
         </is>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="4" t="inlineStr">
+    <row r="58" hidden="1">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1472,12 +1438,12 @@
           <t>3VP.145.15WCD</t>
         </is>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+    <row r="59" hidden="1">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
@@ -1487,12 +1453,12 @@
           <t>6PSP.289.15LCY</t>
         </is>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+    <row r="60" hidden="1">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -1502,12 +1468,12 @@
           <t>6V.289.15ISL</t>
         </is>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="1" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
@@ -1517,12 +1483,12 @@
           <t>6VR.145.15DWL</t>
         </is>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+    <row r="62" hidden="1">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -1532,12 +1498,12 @@
           <t>6VR.145.15IRW</t>
         </is>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+    <row r="63" hidden="1">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
@@ -1547,12 +1513,12 @@
           <t>6VR.145.15LNW</t>
         </is>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+    <row r="64" hidden="1">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>SO-1013129</t>
         </is>
@@ -1562,12 +1528,12 @@
           <t>6VR.145.15WCD</t>
         </is>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="4" t="inlineStr">
+    <row r="65" hidden="1">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>SO-1013131</t>
         </is>
@@ -1577,12 +1543,12 @@
           <t>6VR.289.15BAS</t>
         </is>
       </c>
-      <c r="C65" s="4" t="n">
+      <c r="C65" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="4" t="inlineStr">
+    <row r="66" hidden="1">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>SO-1013133</t>
         </is>
@@ -1592,12 +1558,12 @@
           <t>6VR.289.15BAS</t>
         </is>
       </c>
-      <c r="C66" s="4" t="n">
+      <c r="C66" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="4" t="inlineStr">
+    <row r="67" hidden="1">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
@@ -1607,12 +1573,12 @@
           <t>6VR.289.15DNW</t>
         </is>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="1" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="4" t="inlineStr">
+    <row r="68" hidden="1">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
@@ -1622,12 +1588,12 @@
           <t>6VR.289.15DNW</t>
         </is>
       </c>
-      <c r="C68" s="4" t="n">
+      <c r="C68" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
@@ -1637,12 +1603,12 @@
           <t>6VR.289.15DWL</t>
         </is>
       </c>
-      <c r="C69" s="4" t="n">
+      <c r="C69" s="1" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="4" t="inlineStr">
+    <row r="70" hidden="1">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -1652,12 +1618,12 @@
           <t>6VR.289.15DWO</t>
         </is>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C70" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="4" t="inlineStr">
+    <row r="71" hidden="1">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -1667,12 +1633,12 @@
           <t>6VR.289.15IRW</t>
         </is>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C71" s="1" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="4" t="inlineStr">
+    <row r="72" hidden="1">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -1682,12 +1648,12 @@
           <t>6VR.289.15IRW</t>
         </is>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="4" t="inlineStr">
+    <row r="73" hidden="1">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -1697,12 +1663,12 @@
           <t>6VR.289.15LBB</t>
         </is>
       </c>
-      <c r="C73" s="4" t="n">
+      <c r="C73" s="1" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="4" t="inlineStr">
+    <row r="74" hidden="1">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1712,12 +1678,12 @@
           <t>6VR.289.15WCD</t>
         </is>
       </c>
-      <c r="C74" s="4" t="n">
+      <c r="C74" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="4" t="inlineStr">
+    <row r="75" hidden="1">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1727,12 +1693,12 @@
           <t>6VR.289.15WCD</t>
         </is>
       </c>
-      <c r="C75" s="4" t="n">
+      <c r="C75" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="4" t="inlineStr">
+    <row r="76" hidden="1">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1742,12 +1708,12 @@
           <t>6VR.289.15WCD</t>
         </is>
       </c>
-      <c r="C76" s="4" t="n">
+      <c r="C76" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="4" t="inlineStr">
+    <row r="77" hidden="1">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1757,12 +1723,12 @@
           <t>6VR.289.15WCD</t>
         </is>
       </c>
-      <c r="C77" s="4" t="n">
+      <c r="C77" s="1" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="4" t="inlineStr">
+    <row r="78" hidden="1">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
@@ -1772,12 +1738,12 @@
           <t>6VR.289.15WCD</t>
         </is>
       </c>
-      <c r="C78" s="4" t="n">
+      <c r="C78" s="1" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="4" t="inlineStr">
+    <row r="79" hidden="1">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
@@ -1787,12 +1753,12 @@
           <t>6VR.289.15WCD</t>
         </is>
       </c>
-      <c r="C79" s="4" t="n">
+      <c r="C79" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="4" t="inlineStr">
+    <row r="80" hidden="1">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -1802,267 +1768,267 @@
           <t>6VR.289.15WCD</t>
         </is>
       </c>
-      <c r="C80" s="4" t="n">
+      <c r="C80" s="1" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="4" t="inlineStr">
+    <row r="81" hidden="1">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B81" s="5" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
       </c>
-      <c r="C81" s="4" t="n">
+      <c r="C81" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="4" t="inlineStr">
+    <row r="82" hidden="1">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C82" s="4" t="n">
+      <c r="C82" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="4" t="inlineStr">
+    <row r="83" hidden="1">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C83" s="4" t="n">
+      <c r="C83" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="4" t="inlineStr">
+    <row r="84" hidden="1">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C84" s="4" t="n">
+      <c r="C84" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="4" t="inlineStr">
+    <row r="85" hidden="1">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>SO-1013129</t>
         </is>
       </c>
-      <c r="B85" s="5" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C85" s="4" t="n">
+      <c r="C85" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="4" t="inlineStr">
+    <row r="86" hidden="1">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>SO-1013131</t>
         </is>
       </c>
-      <c r="B86" s="5" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C86" s="4" t="n">
+      <c r="C86" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="4" t="inlineStr">
+    <row r="87" hidden="1">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>SO-1013133</t>
         </is>
       </c>
-      <c r="B87" s="5" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C87" s="4" t="n">
+      <c r="C87" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="4" t="inlineStr">
+    <row r="88" hidden="1">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B88" s="5" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C88" s="4" t="n">
+      <c r="C88" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="inlineStr">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B89" s="5" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
       </c>
-      <c r="C89" s="4" t="n">
+      <c r="C89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="inlineStr">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B90" s="5" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C90" s="4" t="n">
+      <c r="C90" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="4" t="inlineStr">
+    <row r="91" hidden="1">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B91" s="5" t="inlineStr">
+      <c r="B91" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C91" s="4" t="n">
+      <c r="C91" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="4" t="inlineStr">
+    <row r="92" hidden="1">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="B92" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C92" s="4" t="n">
+      <c r="C92" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="4" t="inlineStr">
+    <row r="93" hidden="1">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B93" s="5" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
       </c>
-      <c r="C93" s="4" t="n">
+      <c r="C93" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="4" t="inlineStr">
+    <row r="94" hidden="1">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B94" s="5" t="inlineStr">
+      <c r="B94" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C94" s="4" t="n">
+      <c r="C94" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="4" t="inlineStr">
+    <row r="95" hidden="1">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B95" s="5" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C95" s="4" t="n">
+      <c r="C95" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="4" t="inlineStr">
+    <row r="96" hidden="1">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B96" s="5" t="inlineStr">
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
       </c>
-      <c r="C96" s="4" t="n">
+      <c r="C96" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="4" t="inlineStr">
+    <row r="97" hidden="1">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B97" s="5" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
       </c>
-      <c r="C97" s="4" t="n">
+      <c r="C97" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="4" t="inlineStr">
+    <row r="98" hidden="1">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -2072,12 +2038,12 @@
           <t>JT23.145.15DWO</t>
         </is>
       </c>
-      <c r="C98" s="4" t="n">
+      <c r="C98" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="4" t="inlineStr">
+    <row r="99" hidden="1">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -2087,12 +2053,12 @@
           <t>JT23.145.15IRW</t>
         </is>
       </c>
-      <c r="C99" s="4" t="n">
+      <c r="C99" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="4" t="inlineStr">
+    <row r="100" hidden="1">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -2102,12 +2068,12 @@
           <t>JT23.145.15IRW</t>
         </is>
       </c>
-      <c r="C100" s="4" t="n">
+      <c r="C100" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="4" t="inlineStr">
+    <row r="101" hidden="1">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -2117,12 +2083,12 @@
           <t>JT23.145.15IRW</t>
         </is>
       </c>
-      <c r="C101" s="4" t="n">
+      <c r="C101" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="4" t="inlineStr">
+    <row r="102" hidden="1">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -2132,12 +2098,12 @@
           <t>JT23.145.15ISL</t>
         </is>
       </c>
-      <c r="C102" s="4" t="n">
+      <c r="C102" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="4" t="inlineStr">
+    <row r="103" hidden="1">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
@@ -2147,12 +2113,12 @@
           <t>JT23.145.15ISL</t>
         </is>
       </c>
-      <c r="C103" s="4" t="n">
+      <c r="C103" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="4" t="inlineStr">
+    <row r="104" hidden="1">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -2162,12 +2128,12 @@
           <t>JT23.145.15LBB</t>
         </is>
       </c>
-      <c r="C104" s="4" t="n">
+      <c r="C104" s="1" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="4" t="inlineStr">
+    <row r="105" hidden="1">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
@@ -2177,12 +2143,12 @@
           <t>JT23.145.15LCY</t>
         </is>
       </c>
-      <c r="C105" s="4" t="n">
+      <c r="C105" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="4" t="inlineStr">
+    <row r="106" hidden="1">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
@@ -2192,12 +2158,12 @@
           <t>JT23.145.15LNW</t>
         </is>
       </c>
-      <c r="C106" s="4" t="n">
+      <c r="C106" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="4" t="inlineStr">
+    <row r="107" hidden="1">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -2207,12 +2173,12 @@
           <t>JT23.145.15WCD</t>
         </is>
       </c>
-      <c r="C107" s="4" t="n">
+      <c r="C107" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="4" t="inlineStr">
+    <row r="108" hidden="1">
+      <c r="A108" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -2222,12 +2188,12 @@
           <t>JT23.145.15WCD</t>
         </is>
       </c>
-      <c r="C108" s="4" t="n">
+      <c r="C108" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="4" t="inlineStr">
+    <row r="109" hidden="1">
+      <c r="A109" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -2237,12 +2203,12 @@
           <t>JT23.145.15WCD</t>
         </is>
       </c>
-      <c r="C109" s="4" t="n">
+      <c r="C109" s="1" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="4" t="inlineStr">
+    <row r="110" hidden="1">
+      <c r="A110" s="1" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
@@ -2252,12 +2218,12 @@
           <t>JT23C.145.15DWO</t>
         </is>
       </c>
-      <c r="C110" s="4" t="n">
+      <c r="C110" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="4" t="inlineStr">
+    <row r="111" hidden="1">
+      <c r="A111" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -2267,12 +2233,12 @@
           <t>JT23C.145.15LBB</t>
         </is>
       </c>
-      <c r="C111" s="4" t="n">
+      <c r="C111" s="1" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="4" t="inlineStr">
+    <row r="112" hidden="1">
+      <c r="A112" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
@@ -2282,12 +2248,12 @@
           <t>JT23C.145.15LCY</t>
         </is>
       </c>
-      <c r="C112" s="4" t="n">
+      <c r="C112" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="4" t="inlineStr">
+    <row r="113" hidden="1">
+      <c r="A113" s="1" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
@@ -2297,12 +2263,12 @@
           <t>JT23C.145.15LNW</t>
         </is>
       </c>
-      <c r="C113" s="4" t="n">
+      <c r="C113" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="4" t="inlineStr">
+    <row r="114" hidden="1">
+      <c r="A114" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -2312,12 +2278,12 @@
           <t>JT23C.145.15WCD</t>
         </is>
       </c>
-      <c r="C114" s="4" t="n">
+      <c r="C114" s="1" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="4" t="inlineStr">
+    <row r="115" hidden="1">
+      <c r="A115" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
@@ -2327,42 +2293,42 @@
           <t>JT23C.145.15WCD</t>
         </is>
       </c>
-      <c r="C115" s="4" t="n">
+      <c r="C115" s="1" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="4" t="inlineStr">
+    <row r="116" hidden="1">
+      <c r="A116" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B116" s="4" t="inlineStr">
+      <c r="B116" s="1" t="inlineStr">
         <is>
           <t>LLIW.N1</t>
         </is>
       </c>
-      <c r="C116" s="4" t="n">
+      <c r="C116" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="4" t="inlineStr">
+    <row r="117" hidden="1">
+      <c r="A117" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B117" s="4" t="inlineStr">
+      <c r="B117" s="1" t="inlineStr">
         <is>
           <t>LLMC.N1</t>
         </is>
       </c>
-      <c r="C117" s="4" t="n">
+      <c r="C117" s="1" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="4" t="inlineStr">
+    <row r="118" hidden="1">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
@@ -2372,12 +2338,12 @@
           <t>TGBJKIT</t>
         </is>
       </c>
-      <c r="C118" s="4" t="n">
+      <c r="C118" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="4" t="inlineStr">
+    <row r="119" hidden="1">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
@@ -2387,22 +2353,22 @@
           <t>TGBJKIT</t>
         </is>
       </c>
-      <c r="C119" s="4" t="n">
+      <c r="C119" s="1" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="4" t="inlineStr">
+    <row r="120" hidden="1">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="B120" s="1" t="inlineStr">
         <is>
           <t>TUP.30200</t>
         </is>
       </c>
-      <c r="C120" s="4" t="n">
+      <c r="C120" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
@@ -2411,38 +2377,43 @@
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="4" t="inlineStr">
+    <row r="121" hidden="1">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B121" s="4" t="inlineStr">
+      <c r="B121" s="1" t="inlineStr">
         <is>
           <t>TUP.30200</t>
         </is>
       </c>
-      <c r="C121" s="4" t="n">
+      <c r="C121" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="inlineStr">
+      <c r="A122" s="1" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B122" s="4" t="inlineStr">
+      <c r="B122" s="1" t="inlineStr">
         <is>
           <t>TUP.71400</t>
         </is>
       </c>
-      <c r="C122" s="4" t="n">
+      <c r="C122" s="1" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C122">
+    <filterColumn colId="0" hiddenButton="0" showButton="1">
+      <filters>
+        <filter val="SO-1013178"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:C122">
       <sortCondition ref="B1:B122"/>
     </sortState>
@@ -2459,71 +2430,71 @@
   </sheetPr>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.7109375" customWidth="1" style="9" min="1" max="1"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
-    <col width="17.28515625" customWidth="1" style="9" min="3" max="3"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="18" customWidth="1" style="9" min="5" max="5"/>
-    <col width="18.28515625" customWidth="1" style="9" min="6" max="6"/>
-    <col width="18.42578125" customWidth="1" style="9" min="7" max="7"/>
-    <col width="17.5703125" customWidth="1" style="9" min="8" max="8"/>
+    <col width="16.6640625" customWidth="1" min="1" max="1"/>
+    <col width="17.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="17.33203125" customWidth="1" min="3" max="3"/>
+    <col width="13.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18.33203125" customWidth="1" min="6" max="6"/>
+    <col width="18.44140625" customWidth="1" min="7" max="7"/>
+    <col width="17.5546875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Order ID</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>SKU</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>SKU Description</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>SKU Qty</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>SKU Weight (kg)</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>SKU Width (mm)</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>SKU Height (mm)</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>SKU Length (mm)</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>1JT.145.15DWL</t>
         </is>
@@ -2544,13 +2515,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>1JT.145.15WCD</t>
         </is>
@@ -2571,13 +2542,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>1JTC.145.15WCD</t>
         </is>
@@ -2598,13 +2569,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>1OC.145.15DWL</t>
         </is>
@@ -2625,13 +2596,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>1OC.145.15WCD</t>
         </is>
@@ -2652,13 +2623,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>1OC.145.15WCD</t>
         </is>
@@ -2679,13 +2650,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>1SJT.145.15DNW</t>
         </is>
@@ -2706,13 +2677,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>1TJT.145.15DNW</t>
         </is>
@@ -2733,13 +2704,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>1TJT.145.15LCY</t>
         </is>
@@ -2766,7 +2737,7 @@
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>1TJT.145.15LNW</t>
         </is>
@@ -2787,13 +2758,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>1TJT.145.15WCD</t>
         </is>
@@ -2814,13 +2785,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>1TJT.145.15WCD</t>
         </is>
@@ -2841,13 +2812,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>1TJT.145.15WCD</t>
         </is>
@@ -2868,13 +2839,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>1TJT.145.15WCD</t>
         </is>
@@ -2895,13 +2866,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>2BA.145.15OBL</t>
         </is>
@@ -2922,13 +2893,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>2BA.145.15OBL</t>
         </is>
@@ -2949,13 +2920,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>2BA.145.15OBL</t>
         </is>
@@ -2976,13 +2947,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>2BA.145.15OBL</t>
         </is>
@@ -3003,13 +2974,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>2BA.145.15OBL</t>
         </is>
@@ -3030,13 +3001,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>2BTBSS.145.15OBL</t>
         </is>
@@ -3057,13 +3028,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B22" s="7" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>2COR1.145.15IRW</t>
         </is>
@@ -3084,13 +3055,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>2COR1.145.15ISL</t>
         </is>
@@ -3111,13 +3082,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B24" s="7" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>2COR1.145.15WCD</t>
         </is>
@@ -3138,13 +3109,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>2COR1.145.15WCD</t>
         </is>
@@ -3165,13 +3136,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B26" s="7" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>2COR1.145.15WCD</t>
         </is>
@@ -3192,13 +3163,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>2COR2.145.15IRW</t>
         </is>
@@ -3219,13 +3190,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>2COR2.145.15IRW</t>
         </is>
@@ -3246,13 +3217,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>2COR2.145.15ISL</t>
         </is>
@@ -3273,13 +3244,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>2COR2.145.15WCD</t>
         </is>
@@ -3300,13 +3271,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>2COR2.145.15WCD</t>
         </is>
@@ -3327,13 +3298,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>2COR2.145.15WCD</t>
         </is>
@@ -3354,13 +3325,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B33" s="7" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>2FR.145.15DWL</t>
         </is>
@@ -3381,13 +3352,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B34" s="7" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>2FR.145.15DWO</t>
         </is>
@@ -3408,13 +3379,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>2FR.145.15ISL</t>
         </is>
@@ -3435,13 +3406,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>2FR.145.15LBB</t>
         </is>
@@ -3462,13 +3433,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>2FR.145.15WCD</t>
         </is>
@@ -3489,13 +3460,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B38" s="7" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>2FR.145.15WCD</t>
         </is>
@@ -3516,13 +3487,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B39" s="7" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>2OFFC.145.15WCD</t>
         </is>
@@ -3543,13 +3514,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B40" s="7" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>2OFFC.145.15WCD</t>
         </is>
@@ -3570,13 +3541,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B41" s="7" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>2SS.145.15DWL</t>
         </is>
@@ -3597,13 +3568,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B42" s="7" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>2SS.145.15ISL</t>
         </is>
@@ -3630,7 +3601,7 @@
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>2SS.145.15LNW</t>
         </is>
@@ -3651,13 +3622,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B44" s="7" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>2SS.145.15WCD</t>
         </is>
@@ -3678,13 +3649,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B45" s="7" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>2SS.145.15WCD</t>
         </is>
@@ -3705,13 +3676,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B46" s="7" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15DNW</t>
         </is>
@@ -3732,13 +3703,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B47" s="7" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15DWO</t>
         </is>
@@ -3759,13 +3730,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B48" s="7" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15LBB</t>
         </is>
@@ -3786,13 +3757,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B49" s="7" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15LCY</t>
         </is>
@@ -3819,7 +3790,7 @@
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B50" s="7" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15LNW</t>
         </is>
@@ -3840,13 +3811,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B51" s="7" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15WCD</t>
         </is>
@@ -3867,13 +3838,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B52" s="7" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15WCD</t>
         </is>
@@ -3894,13 +3865,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B53" s="7" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>2TB.145.15WCD</t>
         </is>
@@ -3921,13 +3892,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B54" s="7" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>2TJT.145.15DNW</t>
         </is>
@@ -3948,13 +3919,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B55" s="7" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>2X8LLHD.289.15LCY</t>
         </is>
@@ -3975,13 +3946,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B56" s="7" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>3V.145.15LBB</t>
         </is>
@@ -4002,13 +3973,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B57" s="7" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>3VP.145.15WCD</t>
         </is>
@@ -4029,13 +4000,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B58" s="7" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>3VP.145.15WCD</t>
         </is>
@@ -4056,13 +4027,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B59" s="7" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>6PSP.289.15LCY</t>
         </is>
@@ -4083,13 +4054,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B60" s="7" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>6V.289.15ISL</t>
         </is>
@@ -4110,13 +4081,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B61" s="7" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>6VR.145.15DWL</t>
         </is>
@@ -4137,13 +4108,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B62" s="7" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>6VR.145.15IRW</t>
         </is>
@@ -4170,7 +4141,7 @@
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B63" s="7" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>6VR.145.15LNW</t>
         </is>
@@ -4191,13 +4162,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" t="inlineStr">
         <is>
           <t>SO-1013129</t>
         </is>
       </c>
-      <c r="B64" s="7" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>6VR.145.15WCD</t>
         </is>
@@ -4218,13 +4189,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" t="inlineStr">
         <is>
           <t>SO-1013131</t>
         </is>
       </c>
-      <c r="B65" s="7" t="inlineStr">
+      <c r="B65" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15BAS</t>
         </is>
@@ -4245,13 +4216,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" t="inlineStr">
         <is>
           <t>SO-1013133</t>
         </is>
       </c>
-      <c r="B66" s="7" t="inlineStr">
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15BAS</t>
         </is>
@@ -4272,13 +4243,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B67" s="7" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15DNW</t>
         </is>
@@ -4299,13 +4270,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B68" s="7" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15DNW</t>
         </is>
@@ -4326,13 +4297,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B69" s="7" t="inlineStr">
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15DWL</t>
         </is>
@@ -4353,13 +4324,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B70" s="7" t="inlineStr">
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15DWO</t>
         </is>
@@ -4380,13 +4351,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B71" s="7" t="inlineStr">
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15IRW</t>
         </is>
@@ -4407,13 +4378,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B72" s="7" t="inlineStr">
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15IRW</t>
         </is>
@@ -4434,13 +4405,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B73" s="7" t="inlineStr">
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15LBB</t>
         </is>
@@ -4461,13 +4432,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B74" s="7" t="inlineStr">
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15WCD</t>
         </is>
@@ -4488,13 +4459,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B75" s="7" t="inlineStr">
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15WCD</t>
         </is>
@@ -4515,13 +4486,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B76" s="7" t="inlineStr">
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15WCD</t>
         </is>
@@ -4542,13 +4513,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B77" s="7" t="inlineStr">
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15WCD</t>
         </is>
@@ -4569,13 +4540,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B78" s="7" t="inlineStr">
+      <c r="B78" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15WCD</t>
         </is>
@@ -4596,13 +4567,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B79" s="7" t="inlineStr">
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15WCD</t>
         </is>
@@ -4623,13 +4594,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B80" s="7" t="inlineStr">
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>6VR.289.15WCD</t>
         </is>
@@ -4650,13 +4621,13 @@
         <v>7340.599999999999</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B81" s="8" t="inlineStr">
+      <c r="B81" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4677,13 +4648,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="1">
       <c r="A82" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B82" s="8" t="inlineStr">
+      <c r="B82" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4704,13 +4675,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="A83" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B83" s="8" t="inlineStr">
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4731,13 +4702,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" t="inlineStr">
         <is>
           <t>SO-1013129</t>
         </is>
       </c>
-      <c r="B84" s="8" t="inlineStr">
+      <c r="B84" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4758,13 +4729,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" t="inlineStr">
         <is>
           <t>SO-1013131</t>
         </is>
       </c>
-      <c r="B85" s="8" t="inlineStr">
+      <c r="B85" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4785,13 +4756,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" t="inlineStr">
         <is>
           <t>SO-1013133</t>
         </is>
       </c>
-      <c r="B86" s="8" t="inlineStr">
+      <c r="B86" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4812,13 +4783,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B87" s="8" t="inlineStr">
+      <c r="B87" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4839,13 +4810,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B88" s="8" t="inlineStr">
+      <c r="B88" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4866,13 +4837,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" t="inlineStr">
         <is>
           <t>SO-1013179</t>
         </is>
       </c>
-      <c r="B89" s="8" t="inlineStr">
+      <c r="B89" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4893,13 +4864,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" t="inlineStr">
         <is>
           <t>SO-1013190</t>
         </is>
       </c>
-      <c r="B90" s="8" t="inlineStr">
+      <c r="B90" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4926,7 +4897,7 @@
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B91" s="8" t="inlineStr">
+      <c r="B91" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4947,13 +4918,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B92" s="8" t="inlineStr">
+      <c r="B92" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -4974,13 +4945,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B93" s="8" t="inlineStr">
+      <c r="B93" s="6" t="inlineStr">
         <is>
           <t>CLIP.N100</t>
         </is>
@@ -5001,13 +4972,13 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B94" s="8" t="inlineStr">
+      <c r="B94" s="6" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
@@ -5028,13 +4999,13 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" t="inlineStr">
         <is>
           <t>SO-1013178</t>
         </is>
       </c>
-      <c r="B95" s="8" t="inlineStr">
+      <c r="B95" s="6" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
@@ -5055,13 +5026,13 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="A96" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B96" s="8" t="inlineStr">
+      <c r="B96" s="6" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
@@ -5082,13 +5053,13 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="A97" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B97" s="8" t="inlineStr">
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>CLIP.N1500</t>
         </is>
@@ -5109,13 +5080,13 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="A98" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B98" s="7" t="inlineStr">
+      <c r="B98" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15DWO</t>
         </is>
@@ -5136,13 +5107,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="1">
       <c r="A99" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B99" s="7" t="inlineStr">
+      <c r="B99" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15IRW</t>
         </is>
@@ -5163,13 +5134,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B100" s="7" t="inlineStr">
+      <c r="B100" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15IRW</t>
         </is>
@@ -5190,13 +5161,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="A101" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B101" s="7" t="inlineStr">
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15IRW</t>
         </is>
@@ -5217,13 +5188,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B102" s="7" t="inlineStr">
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15ISL</t>
         </is>
@@ -5244,13 +5215,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" t="inlineStr">
         <is>
           <t>SO-1013122</t>
         </is>
       </c>
-      <c r="B103" s="7" t="inlineStr">
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15ISL</t>
         </is>
@@ -5271,13 +5242,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B104" s="7" t="inlineStr">
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15LBB</t>
         </is>
@@ -5298,13 +5269,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="A105" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B105" s="7" t="inlineStr">
+      <c r="B105" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15LCY</t>
         </is>
@@ -5331,7 +5302,7 @@
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B106" s="7" t="inlineStr">
+      <c r="B106" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15LNW</t>
         </is>
@@ -5352,13 +5323,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="1">
       <c r="A107" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B107" s="7" t="inlineStr">
+      <c r="B107" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15WCD</t>
         </is>
@@ -5379,13 +5350,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="1">
       <c r="A108" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B108" s="7" t="inlineStr">
+      <c r="B108" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15WCD</t>
         </is>
@@ -5406,13 +5377,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B109" s="7" t="inlineStr">
+      <c r="B109" s="5" t="inlineStr">
         <is>
           <t>JT23.145.15WCD</t>
         </is>
@@ -5433,13 +5404,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" t="inlineStr">
         <is>
           <t>SO-1013111</t>
         </is>
       </c>
-      <c r="B110" s="7" t="inlineStr">
+      <c r="B110" s="5" t="inlineStr">
         <is>
           <t>JT23C.145.15DWO</t>
         </is>
@@ -5460,13 +5431,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="1">
       <c r="A111" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B111" s="7" t="inlineStr">
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>JT23C.145.15LBB</t>
         </is>
@@ -5487,13 +5458,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="1">
       <c r="A112" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B112" s="7" t="inlineStr">
+      <c r="B112" s="5" t="inlineStr">
         <is>
           <t>JT23C.145.15LCY</t>
         </is>
@@ -5520,7 +5491,7 @@
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B113" s="7" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>JT23C.145.15LNW</t>
         </is>
@@ -5541,13 +5512,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B114" s="7" t="inlineStr">
+      <c r="B114" s="5" t="inlineStr">
         <is>
           <t>JT23C.145.15WCD</t>
         </is>
@@ -5568,13 +5539,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" t="inlineStr">
         <is>
           <t>SO-1013206</t>
         </is>
       </c>
-      <c r="B115" s="7" t="inlineStr">
+      <c r="B115" s="5" t="inlineStr">
         <is>
           <t>JT23C.145.15WCD</t>
         </is>
@@ -5595,13 +5566,13 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="1">
       <c r="A116" t="inlineStr">
         <is>
           <t>SO-1013166</t>
         </is>
       </c>
-      <c r="B116" s="7" t="inlineStr">
+      <c r="B116" s="5" t="inlineStr">
         <is>
           <t>TGBJKIT</t>
         </is>
@@ -5622,13 +5593,13 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" t="inlineStr">
         <is>
           <t>SO-1013148</t>
         </is>
       </c>
-      <c r="B117" s="7" t="inlineStr">
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>TGBJKIT</t>
         </is>
@@ -5664,7 +5635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5743,7 +5714,7 @@
         <v>558.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1813.20146031746</v>
+        <v>1812.566539682541</v>
       </c>
       <c r="I2" t="inlineStr"/>
     </row>
@@ -5762,7 +5733,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>584.2</v>
@@ -5771,7 +5742,7 @@
         <v>558.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1813.20146031746</v>
+        <v>1812.566539682541</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -5799,7 +5770,7 @@
         <v>558.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -5827,7 +5798,7 @@
         <v>558.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -5855,7 +5826,7 @@
         <v>558.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1505.899873015873</v>
+        <v>1505.899873015872</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -5883,7 +5854,7 @@
         <v>558.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1505.899873015873</v>
+        <v>1505.899873015872</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -5911,7 +5882,7 @@
         <v>584.1999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1019.344494331066</v>
+        <v>1019.344494331065</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -5939,7 +5910,7 @@
         <v>584.1999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1019.344494331066</v>
+        <v>1019.344494331065</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -5967,7 +5938,7 @@
         <v>584.1999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1019.344494331066</v>
+        <v>1019.344494331065</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -5992,10 +5963,10 @@
         <v>584.2</v>
       </c>
       <c r="G11" t="n">
-        <v>579.4</v>
+        <v>581.8</v>
       </c>
       <c r="H11" t="n">
-        <v>490.580612244898</v>
+        <v>487.9587709750567</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -6020,10 +5991,10 @@
         <v>584.2</v>
       </c>
       <c r="G12" t="n">
-        <v>579.4</v>
+        <v>581.8</v>
       </c>
       <c r="H12" t="n">
-        <v>490.580612244898</v>
+        <v>487.9587709750567</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -6042,16 +6013,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>584.2</v>
       </c>
       <c r="G13" t="n">
-        <v>579.4</v>
+        <v>581.8</v>
       </c>
       <c r="H13" t="n">
-        <v>490.580612244898</v>
+        <v>487.9587709750567</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -6076,10 +6047,10 @@
         <v>584.2</v>
       </c>
       <c r="G14" t="n">
-        <v>579.4</v>
+        <v>581.8</v>
       </c>
       <c r="H14" t="n">
-        <v>490.580612244898</v>
+        <v>487.9587709750567</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -6098,16 +6069,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>584.2</v>
       </c>
       <c r="G15" t="n">
-        <v>579.4</v>
+        <v>581.8</v>
       </c>
       <c r="H15" t="n">
-        <v>490.580612244898</v>
+        <v>487.9587709750567</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -6126,7 +6097,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6137,10 +6108,10 @@
         <v>584.2</v>
       </c>
       <c r="G16" t="n">
-        <v>579.4</v>
+        <v>581.8</v>
       </c>
       <c r="H16" t="n">
-        <v>490.580612244898</v>
+        <v>487.9587709750567</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -6159,7 +6130,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6170,10 +6141,10 @@
         <v>584.2</v>
       </c>
       <c r="G17" t="n">
-        <v>579.4</v>
+        <v>581.8</v>
       </c>
       <c r="H17" t="n">
-        <v>490.580612244898</v>
+        <v>487.9587709750567</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -6201,7 +6172,7 @@
         <v>558.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1799.051800453515</v>
+        <v>1798.416879818595</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -6220,7 +6191,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>584.2</v>
@@ -6229,7 +6200,7 @@
         <v>558.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1799.051800453515</v>
+        <v>1798.416879818595</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -6257,7 +6228,7 @@
         <v>558.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1799.051800453515</v>
+        <v>1798.416879818595</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -6276,16 +6247,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>584.2000000000002</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>564.35</v>
+        <v>558.8</v>
       </c>
       <c r="H22" t="n">
-        <v>1383.806013605442</v>
+        <v>1787.623229024944</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -6307,13 +6278,13 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>584.2000000000002</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>564.35</v>
+        <v>558.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1383.806013605442</v>
+        <v>1787.623229024944</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -6332,16 +6303,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>584.2000000000002</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>564.35</v>
+        <v>558.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1383.806013605442</v>
+        <v>1787.623229024944</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -6352,24 +6323,24 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2COR1.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>584.2000000000002</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>564.35</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1383.806013605442</v>
+        <v>1654.924816326531</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -6380,24 +6351,24 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1JT.145.15WCD</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>584.2000000000002</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>564.35</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1383.806013605442</v>
+        <v>1654.924816326531</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -6408,24 +6379,24 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2COR2.145.15WCD</t>
+          <t>2COR1.145.15WCD</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>584.2000000000002</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>564.35</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1383.806013605442</v>
+        <v>1654.924816326531</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -6436,29 +6407,24 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>1JT.145.15WCD</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>584.2000000000002</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>564.35</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1383.806013605442</v>
+        <v>1654.924816326531</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -6469,29 +6435,24 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>2COR2.145.15WCD</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>584.2000000000002</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>564.35</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1383.806013605442</v>
+        <v>1654.924816326531</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -6519,7 +6480,7 @@
         <v>558.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -6547,7 +6508,7 @@
         <v>558.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -6575,7 +6536,7 @@
         <v>558.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -6603,7 +6564,7 @@
         <v>558.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -6631,7 +6592,7 @@
         <v>558.8</v>
       </c>
       <c r="H35" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -6659,7 +6620,7 @@
         <v>558.8</v>
       </c>
       <c r="H36" t="n">
-        <v>1810.661777777778</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -6678,16 +6639,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F37" t="n">
-        <v>584.2</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>584.1999999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1372.747945578231</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -6698,24 +6659,24 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2SS.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F38" t="n">
-        <v>584.2</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>584.1999999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H38" t="n">
-        <v>1372.747945578231</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -6726,24 +6687,24 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F39" t="n">
-        <v>584.2</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>584.1999999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H39" t="n">
-        <v>1372.747945578231</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -6754,24 +6715,24 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3VP.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F40" t="n">
-        <v>584.2</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>584.1999999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1372.747945578231</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -6782,24 +6743,24 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3VP.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F41" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>577.85</v>
+        <v>558.8</v>
       </c>
       <c r="H41" t="n">
-        <v>1204.287804988662</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -6810,24 +6771,24 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F42" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>577.85</v>
+        <v>558.8</v>
       </c>
       <c r="H42" t="n">
-        <v>1204.287804988662</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -6838,24 +6799,24 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JT23.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F43" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>577.85</v>
+        <v>558.8</v>
       </c>
       <c r="H43" t="n">
-        <v>1204.287804988662</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -6866,24 +6827,24 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2COR1.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F44" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>577.85</v>
+        <v>558.8</v>
       </c>
       <c r="H44" t="n">
-        <v>1204.287804988662</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -6894,24 +6855,24 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F45" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>577.85</v>
+        <v>558.8</v>
       </c>
       <c r="H45" t="n">
-        <v>1204.287804988662</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -6922,24 +6883,24 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JT23C.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F46" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>577.85</v>
+        <v>558.8</v>
       </c>
       <c r="H46" t="n">
-        <v>1204.287804988662</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -6950,24 +6911,24 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JT23C.145.15WCD</t>
+          <t>2SS.145.15WCD</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F47" t="n">
         <v>584.2</v>
       </c>
       <c r="G47" t="n">
-        <v>565.15</v>
+        <v>558.8</v>
       </c>
       <c r="H47" t="n">
-        <v>940.8864444444444</v>
+        <v>1021.974879818593</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -6978,24 +6939,24 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2OFFC.145.15WCD</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F48" t="n">
         <v>584.2</v>
       </c>
       <c r="G48" t="n">
-        <v>565.15</v>
+        <v>558.8</v>
       </c>
       <c r="H48" t="n">
-        <v>940.8864444444444</v>
+        <v>1021.974879818593</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -7006,24 +6967,24 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2TB.145.15WCD</t>
+          <t>3VP.145.15WCD</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
         <v>584.2</v>
       </c>
       <c r="G49" t="n">
-        <v>565.15</v>
+        <v>558.8</v>
       </c>
       <c r="H49" t="n">
-        <v>940.8864444444444</v>
+        <v>1021.974879818593</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -7034,24 +6995,24 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F50" t="n">
-        <v>584.2</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G50" t="n">
-        <v>565.15</v>
+        <v>571.4999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>940.8864444444444</v>
+        <v>1177.07692063492</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -7062,24 +7023,24 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2TB.145.15WCD</t>
+          <t>JT23.145.15WCD</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F51" t="n">
-        <v>550</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G51" t="n">
-        <v>576.2</v>
+        <v>571.4999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>134.8002811791383</v>
+        <v>1177.07692063492</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -7090,24 +7051,24 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2FR.145.15WCD</t>
+          <t>2COR1.145.15WCD</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>550</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G52" t="n">
-        <v>576.2</v>
+        <v>571.4999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>134.8002811791383</v>
+        <v>1177.07692063492</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -7118,24 +7079,24 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2COR2.145.15WCD</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>550</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G53" t="n">
-        <v>576.2</v>
+        <v>571.4999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>134.8002811791383</v>
+        <v>1177.07692063492</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -7146,24 +7107,24 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1OC.145.15WCD</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F54" t="n">
-        <v>550</v>
+        <v>584.2000000000002</v>
       </c>
       <c r="G54" t="n">
-        <v>576.2</v>
+        <v>571.4999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>134.8002811791383</v>
+        <v>1177.07692063492</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -7174,29 +7135,24 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
+        <v>57</v>
       </c>
       <c r="F55" t="n">
-        <v>550</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>576.2</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>134.8002811791383</v>
+        <v>985.3308888888864</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -7207,255 +7163,260 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>2OFFC.145.15WCD</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
-        <v>550</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>576.2</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>134.8002811791383</v>
+        <v>985.3308888888864</v>
       </c>
       <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SO-1013206</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>19</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2TB.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>37</v>
+      </c>
+      <c r="F57" t="n">
+        <v>571.5000000000001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>571.5000000000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>985.3308888888864</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6VR.289.15DNW</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>584.2</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>558.8</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1815.741142857143</v>
+        <v>985.3308888888864</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2TB.145.15WCD</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F59" t="n">
-        <v>584.2</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>558.8</v>
+        <v>578.5999999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1815.741142857143</v>
+        <v>343.1774240362811</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B60" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2FR.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>2</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>6VR.289.15DNW</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>21</v>
       </c>
       <c r="F60" t="n">
         <v>571.5000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>584.2</v>
+        <v>578.5999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1626.534793650794</v>
+        <v>343.1774240362811</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B61" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2COR2.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>2</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2TJT.145.15DNW</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>22</v>
       </c>
       <c r="F61" t="n">
         <v>571.5000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>584.2</v>
+        <v>578.5999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1626.534793650794</v>
+        <v>343.1774240362811</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B62" t="n">
+        <v>20</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1OC.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>2</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1TJT.145.15DNW</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>9</v>
       </c>
       <c r="F62" t="n">
         <v>571.5000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>584.2</v>
+        <v>578.5999999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1626.534793650794</v>
+        <v>343.1774240362811</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1SJT.145.15DNW</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F63" t="n">
         <v>571.5000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>584.2</v>
+        <v>578.5999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1626.534793650794</v>
+        <v>343.1774240362811</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO-1013190</t>
+          <t>SO-1013206</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2TB.145.15DNW</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F64" t="n">
         <v>571.5000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>584.2</v>
+        <v>578.5999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1626.534793650794</v>
+        <v>343.1774240362811</v>
       </c>
       <c r="I64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SO-1013190</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2TB.145.15DNW</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>6</v>
-      </c>
-      <c r="F65" t="n">
-        <v>550</v>
-      </c>
-      <c r="G65" t="n">
-        <v>576.2</v>
-      </c>
-      <c r="H65" t="n">
-        <v>122.5558095238095</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7464,29 +7425,24 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>6VR.289.15DNW</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>25</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
+        <v>35</v>
       </c>
       <c r="F66" t="n">
-        <v>550</v>
+        <v>584.2</v>
       </c>
       <c r="G66" t="n">
-        <v>576.2</v>
+        <v>558.8</v>
       </c>
       <c r="H66" t="n">
-        <v>122.5558095238095</v>
+        <v>1815.106222222223</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -7497,288 +7453,288 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>550</v>
+        <v>584.2</v>
       </c>
       <c r="G67" t="n">
-        <v>576.2</v>
+        <v>558.8</v>
       </c>
       <c r="H67" t="n">
-        <v>122.5558095238095</v>
+        <v>1815.106222222223</v>
       </c>
       <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SO-1013190</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>6VR.289.15DNW</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>35</v>
+      </c>
+      <c r="F68" t="n">
+        <v>584.1999999999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>558.8</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1810.661777777779</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6PSP.289.15LCY</t>
+          <t>6VR.289.15DNW</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F69" t="n">
+        <v>571.5000000000001</v>
+      </c>
+      <c r="G69" t="n">
         <v>584.2</v>
       </c>
-      <c r="G69" t="n">
-        <v>588.15</v>
-      </c>
       <c r="H69" t="n">
-        <v>1186.527528344671</v>
+        <v>1748.439555555559</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>2TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F70" t="n">
+        <v>571.5000000000001</v>
+      </c>
+      <c r="G70" t="n">
         <v>584.2</v>
       </c>
-      <c r="G70" t="n">
-        <v>588.15</v>
-      </c>
       <c r="H70" t="n">
-        <v>1186.527528344671</v>
+        <v>1748.439555555559</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2X8LLHD.289.15LCY</t>
+          <t>1TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
+        <v>571.5000000000001</v>
+      </c>
+      <c r="G71" t="n">
         <v>584.2</v>
       </c>
-      <c r="G71" t="n">
-        <v>588.15</v>
-      </c>
       <c r="H71" t="n">
-        <v>1186.527528344671</v>
+        <v>1748.439555555559</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1TJT.145.15LCY</t>
+          <t>1SJT.145.15DNW</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="F72" t="n">
+        <v>571.5000000000001</v>
+      </c>
+      <c r="G72" t="n">
         <v>584.2</v>
       </c>
-      <c r="G72" t="n">
-        <v>588.15</v>
-      </c>
       <c r="H72" t="n">
-        <v>1186.527528344671</v>
+        <v>1748.439555555559</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JT23.145.15LCY</t>
+          <t>1SJT.145.15DNW</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>584.2</v>
+        <v>565.1500000000002</v>
       </c>
       <c r="G73" t="n">
-        <v>588.15</v>
+        <v>576.2</v>
       </c>
       <c r="H73" t="n">
-        <v>1186.527528344671</v>
+        <v>249.1893015873016</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JT23C.145.15LCY</t>
+          <t>2TB.145.15DNW</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>584.2</v>
+        <v>565.1500000000002</v>
       </c>
       <c r="G74" t="n">
-        <v>588.15</v>
+        <v>576.2</v>
       </c>
       <c r="H74" t="n">
-        <v>1186.527528344671</v>
+        <v>249.1893015873016</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2TB.145.15LCY</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F75" t="n">
-        <v>584.2</v>
+        <v>565.1500000000002</v>
       </c>
       <c r="G75" t="n">
-        <v>588.15</v>
+        <v>576.2</v>
       </c>
       <c r="H75" t="n">
-        <v>1186.527528344671</v>
+        <v>249.1893015873016</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO-1013166</t>
+          <t>SO-1013190</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F76" t="n">
-        <v>584.2</v>
+        <v>565.1500000000002</v>
       </c>
       <c r="G76" t="n">
-        <v>588.15</v>
+        <v>576.2</v>
       </c>
       <c r="H76" t="n">
-        <v>1186.527528344671</v>
+        <v>249.1893015873016</v>
       </c>
       <c r="I76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SO-1013166</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>584.2</v>
-      </c>
-      <c r="G77" t="n">
-        <v>588.15</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1186.527528344671</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7791,16 +7747,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>6PSP.289.15LCY</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>16</v>
       </c>
       <c r="F78" t="n">
         <v>584.2</v>
@@ -7809,14 +7760,42 @@
         <v>588.15</v>
       </c>
       <c r="H78" t="n">
-        <v>1186.527528344671</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SO-1013166</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TGBJKIT</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>588.15</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1184.622340136054</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -7824,11 +7803,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6VR.145.15LNW</t>
+          <t>2X8LLHD.289.15LCY</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>584.2</v>
@@ -7837,14 +7816,14 @@
         <v>588.15</v>
       </c>
       <c r="H80" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -7852,11 +7831,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>1TJT.145.15LCY</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>584.2</v>
@@ -7865,14 +7844,14 @@
         <v>588.15</v>
       </c>
       <c r="H81" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -7880,11 +7859,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2SS.145.15LNW</t>
+          <t>JT23.145.15LCY</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>584.2</v>
@@ -7893,14 +7872,14 @@
         <v>588.15</v>
       </c>
       <c r="H82" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -7908,11 +7887,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1TJT.145.15LNW</t>
+          <t>JT23C.145.15LCY</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>584.2</v>
@@ -7921,14 +7900,14 @@
         <v>588.15</v>
       </c>
       <c r="H83" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -7936,11 +7915,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>JT23.145.15LNW</t>
+          <t>2TB.145.15LCY</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>584.2</v>
@@ -7949,14 +7928,14 @@
         <v>588.15</v>
       </c>
       <c r="H84" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -7964,11 +7943,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>JT23C.145.15LNW</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>584.2</v>
@@ -7977,14 +7956,14 @@
         <v>588.15</v>
       </c>
       <c r="H85" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -7992,11 +7971,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2TB.145.15LNW</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F86" t="n">
         <v>584.2</v>
@@ -8005,14 +7989,14 @@
         <v>588.15</v>
       </c>
       <c r="H86" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO-1013210</t>
+          <t>SO-1013166</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -8020,15 +8004,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Pack 44 Filler Material</t>
+          <t>Pack 62 Filler Material</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -8038,47 +8022,42 @@
         <v>588.15</v>
       </c>
       <c r="H87" t="n">
-        <v>759.9146213151927</v>
+        <v>1184.622340136054</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>SO-1013210</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B89" t="n">
         <v>1</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Pack_62Filler</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>2</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>6VR.145.15LNW</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>24</v>
+      </c>
+      <c r="F89" t="n">
         <v>584.2</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G89" t="n">
         <v>588.15</v>
       </c>
-      <c r="H88" t="n">
-        <v>759.9146213151927</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>758.5626213151926</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -8086,27 +8065,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>6VR.289.15DWO</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>584.2</v>
       </c>
       <c r="G90" t="n">
-        <v>558.8</v>
+        <v>588.15</v>
       </c>
       <c r="H90" t="n">
-        <v>1815.741142857143</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -8114,218 +8093,200 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2SS.145.15LNW</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>584.2</v>
       </c>
       <c r="G91" t="n">
-        <v>558.8</v>
+        <v>588.15</v>
       </c>
       <c r="H91" t="n">
-        <v>1815.741142857143</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1TJT.145.15LNW</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
         <v>2</v>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>6VR.289.15DWO</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>5</v>
-      </c>
       <c r="F92" t="n">
-        <v>577.8499999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G92" t="n">
-        <v>565.15</v>
+        <v>588.15</v>
       </c>
       <c r="H92" t="n">
-        <v>1406.489442176871</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6V.289.15ISL</t>
+          <t>JT23.145.15LNW</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>577.8499999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G93" t="n">
-        <v>565.15</v>
+        <v>588.15</v>
       </c>
       <c r="H93" t="n">
-        <v>1406.489442176871</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>JT23.145.15DWO</t>
+          <t>JT23C.145.15LNW</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>577.8499999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G94" t="n">
-        <v>565.15</v>
+        <v>588.15</v>
       </c>
       <c r="H94" t="n">
-        <v>1406.489442176871</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>JT23.145.15ISL</t>
+          <t>2TB.145.15LNW</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>577.8499999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G95" t="n">
-        <v>565.15</v>
+        <v>588.15</v>
       </c>
       <c r="H95" t="n">
-        <v>1406.489442176871</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2COR1.145.15ISL</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F96" t="n">
-        <v>577.8499999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G96" t="n">
-        <v>565.15</v>
+        <v>588.15</v>
       </c>
       <c r="H96" t="n">
-        <v>1406.489442176871</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO-1013111</t>
+          <t>SO-1013210</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F97" t="n">
-        <v>577.8499999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G97" t="n">
-        <v>565.15</v>
+        <v>588.15</v>
       </c>
       <c r="H97" t="n">
-        <v>1406.489442176871</v>
+        <v>758.5626213151926</v>
       </c>
       <c r="I97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>SO-1013111</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>JT23C.145.15DWO</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>12</v>
-      </c>
-      <c r="F98" t="n">
-        <v>577.8499999999999</v>
-      </c>
-      <c r="G98" t="n">
-        <v>565.15</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1406.489442176871</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8334,24 +8295,24 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2TB.145.15DWO</t>
+          <t>6VR.289.15DWO</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F99" t="n">
-        <v>577.8499999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G99" t="n">
-        <v>565.15</v>
+        <v>558.8</v>
       </c>
       <c r="H99" t="n">
-        <v>1406.489442176871</v>
+        <v>1817.010984126985</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -8362,24 +8323,24 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2TB.145.15DWO</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>583.3999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G100" t="n">
-        <v>577.8</v>
+        <v>558.8</v>
       </c>
       <c r="H100" t="n">
-        <v>252.461873015873</v>
+        <v>1817.010984126985</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -8390,24 +8351,24 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2FR.145.15DWO</t>
+          <t>6VR.289.15DWO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>583.3999999999999</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>577.8</v>
+        <v>565.15</v>
       </c>
       <c r="H101" t="n">
-        <v>252.461873015873</v>
+        <v>1406.489442176872</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -8418,24 +8379,24 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2COR2.145.15ISL</t>
+          <t>6V.289.15ISL</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F102" t="n">
-        <v>583.3999999999999</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>577.8</v>
+        <v>565.15</v>
       </c>
       <c r="H102" t="n">
-        <v>252.461873015873</v>
+        <v>1406.489442176872</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -8446,29 +8407,24 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>JT23.145.15DWO</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>583.3999999999999</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>577.8</v>
+        <v>565.15</v>
       </c>
       <c r="H103" t="n">
-        <v>252.461873015873</v>
+        <v>1406.489442176872</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -8479,176 +8435,199 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>JT23.145.15ISL</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>583.3999999999999</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>577.8</v>
+        <v>565.15</v>
       </c>
       <c r="H104" t="n">
-        <v>252.461873015873</v>
+        <v>1406.489442176872</v>
       </c>
       <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SO-1013111</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2COR1.145.15ISL</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>12</v>
+      </c>
+      <c r="F105" t="n">
+        <v>577.8499999999999</v>
+      </c>
+      <c r="G105" t="n">
+        <v>565.15</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1406.489442176872</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>584.2</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>584.2</v>
+        <v>565.15</v>
       </c>
       <c r="H106" t="n">
-        <v>1872.793297052154</v>
+        <v>1406.489442176872</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>JT23C.145.15DWO</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>584.2</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>584.2</v>
+        <v>565.15</v>
       </c>
       <c r="H107" t="n">
-        <v>1872.793297052154</v>
+        <v>1406.489442176872</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>2TB.145.15DWO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F108" t="n">
-        <v>584.2</v>
+        <v>577.8499999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>584.2</v>
+        <v>565.15</v>
       </c>
       <c r="H108" t="n">
-        <v>1872.793297052154</v>
+        <v>1406.489442176872</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2TB.145.15DWO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F109" t="n">
-        <v>584.2</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>584.2</v>
+        <v>577.8</v>
       </c>
       <c r="H109" t="n">
-        <v>1863.269487528345</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>2FR.145.15DWO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F110" t="n">
-        <v>584.2</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>584.2</v>
+        <v>577.8</v>
       </c>
       <c r="H110" t="n">
-        <v>1863.269487528345</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8656,27 +8635,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2COR2.145.15ISL</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>584.2</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>584.2</v>
+        <v>577.8</v>
       </c>
       <c r="H111" t="n">
-        <v>1863.269487528345</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8684,78 +8663,60 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F112" t="n">
-        <v>584.2</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>584.2</v>
+        <v>577.8</v>
       </c>
       <c r="H112" t="n">
-        <v>1863.269487528345</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO-1013148</t>
+          <t>SO-1013111</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
       </c>
       <c r="F113" t="n">
-        <v>584.2</v>
+        <v>583.3999999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>584.1999999999999</v>
+        <v>577.8</v>
       </c>
       <c r="H113" t="n">
-        <v>1860.54839909297</v>
+        <v>252.461873015873</v>
       </c>
       <c r="I113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>4</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2BTBSS.145.15OBL</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>584.2</v>
-      </c>
-      <c r="G114" t="n">
-        <v>584.1999999999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1860.54839909297</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8764,24 +8725,24 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F115" t="n">
         <v>584.2</v>
       </c>
       <c r="G115" t="n">
-        <v>584.1999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="H115" t="n">
-        <v>1860.54839909297</v>
+        <v>1871.886267573698</v>
       </c>
       <c r="I115" t="inlineStr"/>
     </row>
@@ -8792,24 +8753,24 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>584.1999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G116" t="n">
-        <v>558.8</v>
+        <v>584.2</v>
       </c>
       <c r="H116" t="n">
-        <v>1810.661777777778</v>
+        <v>1871.886267573698</v>
       </c>
       <c r="I116" t="inlineStr"/>
     </row>
@@ -8820,24 +8781,24 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F117" t="n">
-        <v>584.1999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G117" t="n">
-        <v>558.8</v>
+        <v>584.2</v>
       </c>
       <c r="H117" t="n">
-        <v>1810.661777777778</v>
+        <v>1871.886267573698</v>
       </c>
       <c r="I117" t="inlineStr"/>
     </row>
@@ -8848,7 +8809,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -8856,16 +8817,16 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F118" t="n">
-        <v>584.1999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G118" t="n">
-        <v>558.8</v>
+        <v>584.2</v>
       </c>
       <c r="H118" t="n">
-        <v>1810.661777777778</v>
+        <v>1863.269487528347</v>
       </c>
       <c r="I118" t="inlineStr"/>
     </row>
@@ -8876,24 +8837,24 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F119" t="n">
-        <v>584.1999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G119" t="n">
-        <v>558.8</v>
+        <v>584.2</v>
       </c>
       <c r="H119" t="n">
-        <v>1810.661777777778</v>
+        <v>1863.269487528347</v>
       </c>
       <c r="I119" t="inlineStr"/>
     </row>
@@ -8904,7 +8865,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -8912,16 +8873,16 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F120" t="n">
-        <v>584.1999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G120" t="n">
-        <v>558.8</v>
+        <v>584.2</v>
       </c>
       <c r="H120" t="n">
-        <v>1810.661777777778</v>
+        <v>1863.269487528347</v>
       </c>
       <c r="I120" t="inlineStr"/>
     </row>
@@ -8932,24 +8893,24 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>6VR.289.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F121" t="n">
-        <v>584.1999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G121" t="n">
-        <v>558.8</v>
+        <v>584.2</v>
       </c>
       <c r="H121" t="n">
-        <v>1810.661777777778</v>
+        <v>1863.269487528347</v>
       </c>
       <c r="I121" t="inlineStr"/>
     </row>
@@ -8960,7 +8921,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -8968,16 +8929,16 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F122" t="n">
-        <v>577.85</v>
+        <v>584.2</v>
       </c>
       <c r="G122" t="n">
-        <v>565.15</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>1290.661777777778</v>
+        <v>1834.244544217688</v>
       </c>
       <c r="I122" t="inlineStr"/>
     </row>
@@ -8988,24 +8949,24 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3V.145.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F123" t="n">
-        <v>577.85</v>
+        <v>584.2</v>
       </c>
       <c r="G123" t="n">
-        <v>565.15</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H123" t="n">
-        <v>1290.661777777778</v>
+        <v>1834.244544217688</v>
       </c>
       <c r="I123" t="inlineStr"/>
     </row>
@@ -9016,24 +8977,24 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F124" t="n">
-        <v>577.85</v>
+        <v>584.2</v>
       </c>
       <c r="G124" t="n">
-        <v>565.15</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H124" t="n">
-        <v>1290.661777777778</v>
+        <v>1834.244544217688</v>
       </c>
       <c r="I124" t="inlineStr"/>
     </row>
@@ -9044,24 +9005,24 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3V.145.15LBB</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>577.85</v>
+        <v>584.2</v>
       </c>
       <c r="G125" t="n">
-        <v>577.85</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H125" t="n">
-        <v>1089.367170068027</v>
+        <v>1834.244544217688</v>
       </c>
       <c r="I125" t="inlineStr"/>
     </row>
@@ -9072,24 +9033,24 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>3V.145.15LBB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>577.85</v>
+        <v>584.2</v>
       </c>
       <c r="G126" t="n">
-        <v>577.85</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H126" t="n">
-        <v>1089.367170068027</v>
+        <v>1834.244544217688</v>
       </c>
       <c r="I126" t="inlineStr"/>
     </row>
@@ -9100,7 +9061,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -9108,16 +9069,16 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>577.85</v>
+        <v>584.2</v>
       </c>
       <c r="G127" t="n">
-        <v>577.85</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="H127" t="n">
-        <v>1089.367170068027</v>
+        <v>1834.244544217688</v>
       </c>
       <c r="I127" t="inlineStr"/>
     </row>
@@ -9128,24 +9089,24 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F128" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>552.4499999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H128" t="n">
-        <v>1227.235650793651</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I128" t="inlineStr"/>
     </row>
@@ -9156,24 +9117,24 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F129" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>552.4499999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H129" t="n">
-        <v>1227.235650793651</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I129" t="inlineStr"/>
     </row>
@@ -9184,24 +9145,24 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F130" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>552.4499999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H130" t="n">
-        <v>1227.235650793651</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I130" t="inlineStr"/>
     </row>
@@ -9212,24 +9173,24 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F131" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>565.1500000000001</v>
+        <v>558.8</v>
       </c>
       <c r="H131" t="n">
-        <v>983.6075328798186</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I131" t="inlineStr"/>
     </row>
@@ -9240,24 +9201,24 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F132" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>565.1500000000001</v>
+        <v>558.8</v>
       </c>
       <c r="H132" t="n">
-        <v>983.6075328798186</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I132" t="inlineStr"/>
     </row>
@@ -9268,24 +9229,24 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2TB.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F133" t="n">
-        <v>571.5000000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>565.1500000000001</v>
+        <v>558.8</v>
       </c>
       <c r="H133" t="n">
-        <v>983.6075328798186</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I133" t="inlineStr"/>
     </row>
@@ -9296,24 +9257,24 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2TB.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>571.5000000000001</v>
+        <v>577.85</v>
       </c>
       <c r="G134" t="n">
-        <v>552.4</v>
+        <v>565.15</v>
       </c>
       <c r="H134" t="n">
-        <v>318.9507664399093</v>
+        <v>1307.260417233558</v>
       </c>
       <c r="I134" t="inlineStr"/>
     </row>
@@ -9324,24 +9285,24 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2FR.145.15LBB</t>
+          <t>3V.145.15LBB</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F135" t="n">
-        <v>571.5000000000001</v>
+        <v>577.85</v>
       </c>
       <c r="G135" t="n">
-        <v>552.4</v>
+        <v>565.15</v>
       </c>
       <c r="H135" t="n">
-        <v>318.9507664399093</v>
+        <v>1307.260417233558</v>
       </c>
       <c r="I135" t="inlineStr"/>
     </row>
@@ -9352,29 +9313,24 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>3V.145.15LBB</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>19</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
+        <v>49</v>
       </c>
       <c r="F136" t="n">
-        <v>571.5000000000001</v>
+        <v>577.85</v>
       </c>
       <c r="G136" t="n">
-        <v>552.4</v>
+        <v>577.85</v>
       </c>
       <c r="H136" t="n">
-        <v>318.9507664399093</v>
+        <v>1090.99982312925</v>
       </c>
       <c r="I136" t="inlineStr"/>
     </row>
@@ -9385,344 +9341,344 @@
         </is>
       </c>
       <c r="B137" t="n">
+        <v>12</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>JT23.145.15LBB</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>31</v>
+      </c>
+      <c r="F137" t="n">
+        <v>577.85</v>
+      </c>
+      <c r="G137" t="n">
+        <v>577.85</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1090.99982312925</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SO-1013148</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>JT23C.145.15LBB</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
         <v>15</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Pack_62Filler</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>2</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>571.5000000000001</v>
-      </c>
-      <c r="G137" t="n">
-        <v>552.4</v>
-      </c>
-      <c r="H137" t="n">
-        <v>318.9507664399093</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>577.85</v>
+      </c>
+      <c r="G138" t="n">
+        <v>577.85</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1090.99982312925</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6VR.289.15IRW</t>
+          <t>JT23.145.15LBB</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F139" t="n">
-        <v>584.2</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>558.8</v>
+        <v>552.4499999999999</v>
       </c>
       <c r="H139" t="n">
-        <v>1817.010984126984</v>
+        <v>1228.142680272108</v>
       </c>
       <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F140" t="n">
-        <v>584.2</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>558.8</v>
+        <v>552.4499999999999</v>
       </c>
       <c r="H140" t="n">
-        <v>1817.010984126984</v>
+        <v>1228.142680272108</v>
       </c>
       <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>6VR.289.15IRW</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F141" t="n">
-        <v>584.1999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>584.2</v>
+        <v>552.4499999999999</v>
       </c>
       <c r="H141" t="n">
-        <v>1509.527990929705</v>
+        <v>1228.142680272108</v>
       </c>
       <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6VR.145.15IRW</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F142" t="n">
-        <v>584.1999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G142" t="n">
-        <v>584.2</v>
+        <v>565.1500000000001</v>
       </c>
       <c r="H142" t="n">
-        <v>1509.527990929705</v>
+        <v>1005.739052154192</v>
       </c>
       <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2SS.145.15ISL</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>584.1999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>584.2</v>
+        <v>565.1500000000001</v>
       </c>
       <c r="H143" t="n">
-        <v>1509.527990929705</v>
+        <v>1005.739052154192</v>
       </c>
       <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>JT23.145.15IRW</t>
+          <t>2TB.145.15LBB</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F144" t="n">
-        <v>583.3999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>578.5999999999999</v>
+        <v>565.1500000000001</v>
       </c>
       <c r="H144" t="n">
-        <v>446.8590113378685</v>
+        <v>1005.739052154192</v>
       </c>
       <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>JT23.145.15ISL</t>
+          <t>2TB.145.15LBB</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F145" t="n">
-        <v>583.3999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>578.5999999999999</v>
+        <v>575</v>
       </c>
       <c r="H145" t="n">
-        <v>446.8590113378685</v>
+        <v>281.758925170068</v>
       </c>
       <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2COR1.145.15IRW</t>
+          <t>2FR.145.15LBB</t>
         </is>
       </c>
       <c r="D146" t="n">
         <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>583.3999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>578.5999999999999</v>
+        <v>575</v>
       </c>
       <c r="H146" t="n">
-        <v>446.8590113378685</v>
+        <v>281.758925170068</v>
       </c>
       <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2FR.145.15ISL</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
       </c>
       <c r="F147" t="n">
-        <v>583.3999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>578.5999999999999</v>
+        <v>575</v>
       </c>
       <c r="H147" t="n">
-        <v>446.8590113378685</v>
+        <v>281.758925170068</v>
       </c>
       <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO-1013122</t>
+          <t>SO-1013148</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2COR2.145.15IRW</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="D148" t="n">
         <v>3</v>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
       <c r="F148" t="n">
-        <v>583.3999999999999</v>
+        <v>571.5000000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>578.5999999999999</v>
+        <v>575</v>
       </c>
       <c r="H148" t="n">
-        <v>446.8590113378685</v>
+        <v>281.758925170068</v>
       </c>
       <c r="I148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>3</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>15</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>583.3999999999999</v>
-      </c>
-      <c r="G149" t="n">
-        <v>578.5999999999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>446.8590113378685</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9731,198 +9687,239 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>35</v>
       </c>
       <c r="F150" t="n">
-        <v>583.3999999999999</v>
+        <v>584.2</v>
       </c>
       <c r="G150" t="n">
-        <v>578.5999999999999</v>
+        <v>558.8</v>
       </c>
       <c r="H150" t="n">
-        <v>446.8590113378685</v>
+        <v>1820.820507936509</v>
       </c>
       <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CLIP.N100</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>16</v>
+      </c>
+      <c r="F151" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>558.8</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1820.820507936509</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>6VR.145.15WCD</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D152" t="n">
         <v>35</v>
       </c>
       <c r="F152" t="n">
-        <v>584.2</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G152" t="n">
         <v>558.8</v>
       </c>
       <c r="H152" t="n">
-        <v>909.7753333333333</v>
+        <v>1810.661777777779</v>
       </c>
       <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F153" t="n">
-        <v>584.2</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G153" t="n">
         <v>558.8</v>
       </c>
       <c r="H153" t="n">
-        <v>909.7753333333333</v>
+        <v>1591.160643990929</v>
       </c>
       <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>6VR.145.15WCD</t>
+          <t>6VR.145.15IRW</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F154" t="n">
-        <v>554</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G154" t="n">
-        <v>577.8</v>
+        <v>558.8</v>
       </c>
       <c r="H154" t="n">
-        <v>191.860126984127</v>
+        <v>1591.160643990929</v>
       </c>
       <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B155" t="n">
+        <v>3</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2SS.145.15ISL</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
         <v>2</v>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Pack_44Filler</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>23</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
-      </c>
       <c r="F155" t="n">
-        <v>554</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>577.8</v>
+        <v>558.8</v>
       </c>
       <c r="H155" t="n">
-        <v>191.860126984127</v>
+        <v>1591.160643990929</v>
       </c>
       <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO-1013129</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>2SS.145.15ISL</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>10</v>
       </c>
       <c r="F156" t="n">
-        <v>554</v>
+        <v>584.2</v>
       </c>
       <c r="G156" t="n">
-        <v>577.8</v>
+        <v>581</v>
       </c>
       <c r="H156" t="n">
-        <v>191.860126984127</v>
+        <v>815.7786666666652</v>
       </c>
       <c r="I156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>JT23.145.15IRW</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>48</v>
+      </c>
+      <c r="F157" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>581</v>
+      </c>
+      <c r="H157" t="n">
+        <v>815.7786666666652</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO-1013131</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B158" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>JT23.145.15ISL</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
         <v>1</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>6VR.289.15BAS</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>24</v>
       </c>
       <c r="F158" t="n">
         <v>584.2</v>
@@ -9931,26 +9928,26 @@
         <v>581</v>
       </c>
       <c r="H158" t="n">
-        <v>1274.839301587302</v>
+        <v>815.7786666666652</v>
       </c>
       <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO-1013131</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2COR1.145.15IRW</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F159" t="n">
         <v>584.2</v>
@@ -9959,31 +9956,26 @@
         <v>581</v>
       </c>
       <c r="H159" t="n">
-        <v>1274.839301587302</v>
+        <v>815.7786666666652</v>
       </c>
       <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO-1013131</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>2FR.145.15ISL</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>10</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
+        <v>4</v>
       </c>
       <c r="F160" t="n">
         <v>584.2</v>
@@ -9992,31 +9984,26 @@
         <v>581</v>
       </c>
       <c r="H160" t="n">
-        <v>1274.839301587302</v>
+        <v>815.7786666666652</v>
       </c>
       <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO-1013131</t>
+          <t>SO-1013122</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>2COR2.145.15IRW</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Pack 62 Filler Material</t>
-        </is>
+        <v>4</v>
       </c>
       <c r="F161" t="n">
         <v>584.2</v>
@@ -10025,42 +10012,47 @@
         <v>581</v>
       </c>
       <c r="H161" t="n">
-        <v>1274.839301587302</v>
+        <v>815.7786666666652</v>
       </c>
       <c r="I161" t="inlineStr"/>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SO-1013133</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>1</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>6VR.289.15BAS</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>24</v>
-      </c>
-      <c r="F163" t="n">
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>7</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
         <v>584.2</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G162" t="n">
         <v>581</v>
       </c>
-      <c r="H163" t="n">
-        <v>1274.839301587302</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>815.7786666666652</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO-1013133</t>
+          <t>SO-1013129</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -10068,27 +10060,27 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6VR.145.15WCD</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F164" t="n">
         <v>584.2</v>
       </c>
       <c r="G164" t="n">
-        <v>581</v>
+        <v>558.8</v>
       </c>
       <c r="H164" t="n">
-        <v>1274.839301587302</v>
+        <v>909.1404126984132</v>
       </c>
       <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO-1013133</t>
+          <t>SO-1013129</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -10096,60 +10088,360 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>10</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Pack 44 Filler Material</t>
-        </is>
+        <v>6</v>
       </c>
       <c r="F165" t="n">
         <v>584.2</v>
       </c>
       <c r="G165" t="n">
-        <v>581</v>
+        <v>558.8</v>
       </c>
       <c r="H165" t="n">
-        <v>1274.839301587302</v>
+        <v>909.1404126984132</v>
       </c>
       <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>6VR.145.15WCD</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>554</v>
+      </c>
+      <c r="G166" t="n">
+        <v>577.8</v>
+      </c>
+      <c r="H166" t="n">
+        <v>191.860126984127</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>23</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>554</v>
+      </c>
+      <c r="G167" t="n">
+        <v>577.8</v>
+      </c>
+      <c r="H167" t="n">
+        <v>191.860126984127</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SO-1013129</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>3</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>554</v>
+      </c>
+      <c r="G168" t="n">
+        <v>577.8</v>
+      </c>
+      <c r="H168" t="n">
+        <v>191.860126984127</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>6VR.289.15BAS</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>24</v>
+      </c>
+      <c r="F170" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G170" t="n">
+        <v>581</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>CLIP.N100</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G171" t="n">
+        <v>581</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>10</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G172" t="n">
+        <v>581</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SO-1013131</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G173" t="n">
+        <v>581</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t>SO-1013133</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B175" t="n">
         <v>1</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>6VR.289.15BAS</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>24</v>
+      </c>
+      <c r="F175" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G175" t="n">
+        <v>581</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SO-1013133</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>CLIP.N100</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G176" t="n">
+        <v>581</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SO-1013133</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="G177" t="n">
+        <v>581</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SO-1013133</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
         <is>
           <t>Pack_62Filler</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D178" t="n">
         <v>1</v>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>Pack 62 Filler Material</t>
         </is>
       </c>
-      <c r="F166" t="n">
+      <c r="F178" t="n">
         <v>584.2</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G178" t="n">
         <v>581</v>
       </c>
-      <c r="H166" t="n">
-        <v>1274.839301587302</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="H178" t="n">
+        <v>1274.204380952381</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/new_data/Optimized_Bundles.xlsx
+++ b/new_data/Optimized_Bundles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="SO_Input_Old" sheetId="1" state="visible" r:id="rId1"/>
@@ -367,7 +367,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D117" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:D117"/>
+  <autoFilter ref="A1:D117">
+    <filterColumn colId="0" hiddenButton="0" showButton="1">
+      <filters>
+        <filter val="SO-1013166"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="Order ID" dataDxfId="4"/>
     <tableColumn id="2" name="SKU" dataDxfId="3"/>
@@ -739,7 +745,7 @@
   </sheetPr>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3951,8 +3957,8 @@
   </sheetPr>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3986,7 +3992,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1" s="6">
       <c r="A2" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -4001,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1" s="6">
       <c r="A3" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -4016,7 +4022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1" s="6">
       <c r="A4" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -4031,7 +4037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="1" s="6">
       <c r="A5" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -4046,7 +4052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1" s="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4061,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="1" s="6">
       <c r="A7" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4076,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1" s="6">
       <c r="A8" t="inlineStr">
         <is>
           <t>SO-1013190</t>
@@ -4091,7 +4097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1" s="6">
       <c r="A9" t="inlineStr">
         <is>
           <t>SO-1013190</t>
@@ -4121,7 +4127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1" s="6">
       <c r="A11" t="inlineStr">
         <is>
           <t>SO-1013210</t>
@@ -4136,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1" s="6">
       <c r="A12" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4151,7 +4157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1" s="6">
       <c r="A13" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4166,7 +4172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1" s="6">
       <c r="A14" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -4181,7 +4187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1" s="6">
       <c r="A15" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4196,7 +4202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1" s="6">
       <c r="A16" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4211,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1" s="6">
       <c r="A17" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -4226,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1" s="6">
       <c r="A18" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -4241,7 +4247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="1" s="6">
       <c r="A19" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4256,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1" s="6">
       <c r="A20" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -4271,7 +4277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="1" s="6">
       <c r="A21" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -4286,7 +4292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1" s="6">
       <c r="A22" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -4301,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1" s="6">
       <c r="A23" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -4316,7 +4322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="1" s="6">
       <c r="A24" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4331,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1" s="6">
       <c r="A25" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -4346,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1" s="6">
       <c r="A26" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4361,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1" s="6">
       <c r="A27" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -4376,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1" s="6">
       <c r="A28" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -4391,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1" s="6">
       <c r="A29" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -4406,7 +4412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1" s="6">
       <c r="A30" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4421,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1" s="6">
       <c r="A31" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -4436,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1" s="6">
       <c r="A32" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4451,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1" s="6">
       <c r="A33" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -4466,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1" s="6">
       <c r="A34" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -4481,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1" s="6">
       <c r="A35" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -4496,7 +4502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1" s="6">
       <c r="A36" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -4511,7 +4517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1" s="6">
       <c r="A37" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4526,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1" s="6">
       <c r="A38" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4541,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1" s="6">
       <c r="A39" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4556,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1" s="6">
       <c r="A40" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4571,7 +4577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1" s="6">
       <c r="A41" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -4586,7 +4592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1" s="6">
       <c r="A42" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -4601,7 +4607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1" s="6">
       <c r="A43" t="inlineStr">
         <is>
           <t>SO-1013210</t>
@@ -4616,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1" s="6">
       <c r="A44" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4631,7 +4637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1" s="6">
       <c r="A45" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4646,7 +4652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1" s="6">
       <c r="A46" t="inlineStr">
         <is>
           <t>SO-1013190</t>
@@ -4661,7 +4667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1" s="6">
       <c r="A47" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -4676,7 +4682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1" s="6">
       <c r="A48" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -4706,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1" s="6">
       <c r="A50" t="inlineStr">
         <is>
           <t>SO-1013210</t>
@@ -4721,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="1" s="6">
       <c r="A51" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4736,7 +4742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1" s="6">
       <c r="A52" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4751,7 +4757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="1" s="6">
       <c r="A53" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4766,7 +4772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1" s="6">
       <c r="A54" t="inlineStr">
         <is>
           <t>SO-1013190</t>
@@ -4796,7 +4802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1" s="6">
       <c r="A56" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -4811,7 +4817,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="1" s="6">
       <c r="A57" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4826,7 +4832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1" s="6">
       <c r="A58" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -4856,7 +4862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="1" s="6">
       <c r="A60" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -4871,7 +4877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="1" s="6">
       <c r="A61" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -4886,7 +4892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="1" s="6">
       <c r="A62" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -4901,7 +4907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="1" s="6">
       <c r="A63" t="inlineStr">
         <is>
           <t>SO-1013210</t>
@@ -4916,7 +4922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1" s="6">
       <c r="A64" t="inlineStr">
         <is>
           <t>SO-1013129</t>
@@ -4931,7 +4937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1" s="6">
       <c r="A65" t="inlineStr">
         <is>
           <t>SO-1013131</t>
@@ -4946,7 +4952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1" s="6">
       <c r="A66" t="inlineStr">
         <is>
           <t>SO-1013133</t>
@@ -4961,7 +4967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1" s="6">
       <c r="A67" t="inlineStr">
         <is>
           <t>SO-1013190</t>
@@ -4976,7 +4982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="1" s="6">
       <c r="A68" t="inlineStr">
         <is>
           <t>SO-1013190</t>
@@ -4991,7 +4997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1" s="6">
       <c r="A69" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -5006,7 +5012,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="1" s="6">
       <c r="A70" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -5021,7 +5027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="1" s="6">
       <c r="A71" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5036,7 +5042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1" s="6">
       <c r="A72" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5051,7 +5057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1" s="6">
       <c r="A73" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -5066,7 +5072,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="1" s="6">
       <c r="A74" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5081,7 +5087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1" s="6">
       <c r="A75" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5096,7 +5102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="1" s="6">
       <c r="A76" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5111,7 +5117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="1" s="6">
       <c r="A77" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5126,7 +5132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="1" s="6">
       <c r="A78" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -5141,7 +5147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1" s="6">
       <c r="A79" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -5156,7 +5162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1" s="6">
       <c r="A80" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5171,7 +5177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="1" s="6">
       <c r="A81" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5186,7 +5192,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="1" s="6">
       <c r="A82" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -5201,7 +5207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="1" s="6">
       <c r="A83" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -5216,7 +5222,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1" s="6">
       <c r="A84" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5231,7 +5237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1" s="6">
       <c r="A85" t="inlineStr">
         <is>
           <t>SO-1013129</t>
@@ -5246,7 +5252,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="1" s="6">
       <c r="A86" t="inlineStr">
         <is>
           <t>SO-1013131</t>
@@ -5261,7 +5267,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1" s="6">
       <c r="A87" t="inlineStr">
         <is>
           <t>SO-1013133</t>
@@ -5276,7 +5282,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="1" s="6">
       <c r="A88" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5291,7 +5297,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1" s="6">
       <c r="A89" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -5306,7 +5312,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1" s="6">
       <c r="A90" t="inlineStr">
         <is>
           <t>SO-1013178</t>
@@ -5321,7 +5327,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1" s="6">
       <c r="A91" t="inlineStr">
         <is>
           <t>SO-1013179</t>
@@ -5336,7 +5342,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1" s="6">
       <c r="A92" t="inlineStr">
         <is>
           <t>SO-1013190</t>
@@ -5351,7 +5357,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="1" s="6">
       <c r="A93" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5366,7 +5372,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1" s="6">
       <c r="A94" t="inlineStr">
         <is>
           <t>SO-1013210</t>
@@ -5396,7 +5402,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="1" s="6">
       <c r="A96" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -5411,7 +5417,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="1" s="6">
       <c r="A97" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -5426,7 +5432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="1" s="6">
       <c r="A98" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -5441,7 +5447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="1" s="6">
       <c r="A99" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5456,7 +5462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1" s="6">
       <c r="A100" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5471,7 +5477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1" s="6">
       <c r="A101" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5486,7 +5492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="1" s="6">
       <c r="A102" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -5501,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="1" s="6">
       <c r="A103" t="inlineStr">
         <is>
           <t>SO-1013122</t>
@@ -5516,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="1" s="6">
       <c r="A104" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -5546,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1" s="6">
       <c r="A106" t="inlineStr">
         <is>
           <t>SO-1013210</t>
@@ -5561,7 +5567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="1" s="6">
       <c r="A107" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5576,7 +5582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="1" s="6">
       <c r="A108" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5591,7 +5597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1" s="6">
       <c r="A109" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5606,7 +5612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="1" s="6">
       <c r="A110" t="inlineStr">
         <is>
           <t>SO-1013111</t>
@@ -5621,7 +5627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="1" s="6">
       <c r="A111" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -5651,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="1" s="6">
       <c r="A113" t="inlineStr">
         <is>
           <t>SO-1013210</t>
@@ -5666,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="1" s="6">
       <c r="A114" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5681,7 +5687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="1" s="6">
       <c r="A115" t="inlineStr">
         <is>
           <t>SO-1013206</t>
@@ -5711,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="1" s="6">
       <c r="A117" t="inlineStr">
         <is>
           <t>SO-1013148</t>
@@ -5742,8 +5748,8 @@
   </sheetPr>
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="K204" sqref="K204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -10837,7 +10843,7 @@
         <v>228.6</v>
       </c>
       <c r="I20" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -10868,7 +10874,7 @@
         <v>228.6</v>
       </c>
       <c r="I21" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -10899,7 +10905,7 @@
         <v>228.6</v>
       </c>
       <c r="I22" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -10930,7 +10936,7 @@
         <v>228.6</v>
       </c>
       <c r="I23" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -10961,7 +10967,7 @@
         <v>228.6</v>
       </c>
       <c r="I24" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -10992,7 +10998,7 @@
         <v>228.6</v>
       </c>
       <c r="I25" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J25" t="inlineStr"/>
     </row>
@@ -11011,7 +11017,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
@@ -11023,7 +11029,7 @@
         <v>228.6</v>
       </c>
       <c r="I26" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -11059,7 +11065,7 @@
         <v>228.6</v>
       </c>
       <c r="I27" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J27" t="inlineStr"/>
     </row>
@@ -11095,7 +11101,7 @@
         <v>228.6</v>
       </c>
       <c r="I28" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
@@ -11131,7 +11137,7 @@
         <v>228.6</v>
       </c>
       <c r="I29" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J29" t="inlineStr"/>
     </row>
@@ -11167,7 +11173,7 @@
         <v>228.6</v>
       </c>
       <c r="I30" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -11203,7 +11209,7 @@
         <v>228.6</v>
       </c>
       <c r="I31" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -11239,7 +11245,7 @@
         <v>228.6</v>
       </c>
       <c r="I32" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -11254,18 +11260,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pack 62 Filler Material</t>
+          <t>Pack 44 Filler Material</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -11275,40 +11281,45 @@
         <v>228.6</v>
       </c>
       <c r="I33" t="n">
-        <v>445.4717959183673</v>
+        <v>438.3929070294784</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SO-1013206</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>6VR.289.15WCD</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>29</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8</v>
-      </c>
-      <c r="G35" t="n">
-        <v>571.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>584.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1672.137609977324</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SO-1013179</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>565.1500000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>438.3929070294784</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11321,14 +11332,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2SS.145.15WCD</t>
+          <t>6VR.289.15WCD</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G36" t="n">
         <v>571.5</v>
@@ -11352,14 +11363,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3VP.145.15WCD</t>
+          <t>2SS.145.15WCD</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
         <v>571.5</v>
@@ -11383,14 +11394,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1TJT.145.15WCD</t>
+          <t>3VP.145.15WCD</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G38" t="n">
         <v>571.5</v>
@@ -11414,14 +11425,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JT23.145.15WCD</t>
+          <t>1TJT.145.15WCD</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
         <v>571.5</v>
@@ -11445,14 +11456,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2COR1.145.15WCD</t>
+          <t>JT23.145.15WCD</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
         <v>571.5</v>
@@ -11476,14 +11487,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JT23C.145.15WCD</t>
+          <t>2COR1.145.15WCD</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
         <v>571.5</v>
@@ -11507,19 +11518,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="G42" t="n">
         <v>571.5</v>
@@ -11543,7 +11549,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -11554,7 +11560,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -11579,7 +11585,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -11590,7 +11596,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -11615,7 +11621,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -11626,7 +11632,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -11651,7 +11657,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -11662,7 +11668,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -11687,18 +11693,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -11719,27 +11725,32 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Pack_Pad_19_3680</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2COR1.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>558.8</v>
+        <v>571.5</v>
       </c>
       <c r="H48" t="n">
-        <v>196.85</v>
+        <v>584.2</v>
       </c>
       <c r="I48" t="n">
-        <v>199.4845487528345</v>
+        <v>1672.137609977324</v>
       </c>
       <c r="J48" t="inlineStr"/>
     </row>
@@ -11754,14 +11765,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>2COR1.145.15WCD</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
         <v>558.8</v>
@@ -11785,14 +11796,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JT23C.145.15WCD</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
         <v>558.8</v>
@@ -11816,14 +11827,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2OFFC.145.15WCD</t>
+          <t>JT23C.145.15WCD</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G51" t="n">
         <v>558.8</v>
@@ -11847,14 +11858,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>2OFFC.145.15WCD</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
         <v>558.8</v>
@@ -11878,14 +11889,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2TB.145.15WCD</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G53" t="n">
         <v>558.8</v>
@@ -11909,11 +11920,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2FR.145.15WCD</t>
+          <t>2TB.145.15WCD</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -11940,14 +11951,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2COR2.145.15WCD</t>
+          <t>2FR.145.15WCD</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
         <v>558.8</v>
@@ -11971,7 +11982,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1OC.145.15WCD</t>
+          <t>2COR2.145.15WCD</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -12002,19 +12013,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>1OC.145.15WCD</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
         <v>558.8</v>
@@ -12038,7 +12044,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -12049,7 +12055,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -12074,7 +12080,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -12085,7 +12091,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -12110,7 +12116,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -12121,7 +12127,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -12146,7 +12152,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -12157,7 +12163,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -12182,18 +12188,18 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -12207,36 +12213,41 @@
       </c>
       <c r="J62" t="inlineStr"/>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SO-1013190</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>6VR.289.15DNW</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>7</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8</v>
-      </c>
-      <c r="G64" t="n">
-        <v>577.8500000000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>450.0886757369614</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SO-1013206</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Pack_Pad_19_3680</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>558.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>196.85</v>
+      </c>
+      <c r="I63" t="n">
+        <v>199.4845487528345</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12249,14 +12260,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2TJT.145.15DNW</t>
+          <t>6VR.289.15DNW</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G65" t="n">
         <v>577.8500000000001</v>
@@ -12265,7 +12276,7 @@
         <v>203.2</v>
       </c>
       <c r="I65" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J65" t="inlineStr"/>
     </row>
@@ -12280,11 +12291,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1TJT.145.15DNW</t>
+          <t>2TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
         <v>20</v>
@@ -12296,7 +12307,7 @@
         <v>203.2</v>
       </c>
       <c r="I66" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J66" t="inlineStr"/>
     </row>
@@ -12311,14 +12322,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1SJT.145.15DNW</t>
+          <t>1TJT.145.15DNW</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
         <v>577.8500000000001</v>
@@ -12327,7 +12338,7 @@
         <v>203.2</v>
       </c>
       <c r="I67" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J67" t="inlineStr"/>
     </row>
@@ -12342,11 +12353,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2TB.145.15DNW</t>
+          <t>1SJT.145.15DNW</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -12358,7 +12369,7 @@
         <v>203.2</v>
       </c>
       <c r="I68" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J68" t="inlineStr"/>
     </row>
@@ -12373,14 +12384,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2TB.145.15DNW</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
         <v>577.8500000000001</v>
@@ -12389,7 +12400,7 @@
         <v>203.2</v>
       </c>
       <c r="I69" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J69" t="inlineStr"/>
     </row>
@@ -12404,19 +12415,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
         <v>577.8500000000001</v>
@@ -12425,7 +12431,7 @@
         <v>203.2</v>
       </c>
       <c r="I70" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J70" t="inlineStr"/>
     </row>
@@ -12440,7 +12446,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -12451,7 +12457,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -12461,7 +12467,7 @@
         <v>203.2</v>
       </c>
       <c r="I71" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J71" t="inlineStr"/>
     </row>
@@ -12476,7 +12482,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -12487,7 +12493,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -12497,7 +12503,7 @@
         <v>203.2</v>
       </c>
       <c r="I72" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
@@ -12512,7 +12518,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -12523,7 +12529,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -12533,7 +12539,7 @@
         <v>203.2</v>
       </c>
       <c r="I73" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
@@ -12548,7 +12554,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -12559,7 +12565,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -12569,7 +12575,7 @@
         <v>203.2</v>
       </c>
       <c r="I74" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J74" t="inlineStr"/>
     </row>
@@ -12584,18 +12590,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -12605,7 +12611,7 @@
         <v>203.2</v>
       </c>
       <c r="I75" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J75" t="inlineStr"/>
     </row>
@@ -12620,7 +12626,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -12631,7 +12637,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pack 44 Filler Material</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -12641,40 +12647,45 @@
         <v>203.2</v>
       </c>
       <c r="I76" t="n">
-        <v>450.0886757369614</v>
+        <v>443.1045487528344</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SO-1013166</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>6PSP.289.15LCY</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SO-1013190</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="E78" t="n">
-        <v>8</v>
-      </c>
-      <c r="G78" t="n">
-        <v>533.4</v>
-      </c>
-      <c r="H78" t="n">
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>577.8500000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>203.2</v>
       </c>
-      <c r="I78" t="n">
-        <v>269.9566802721088</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>443.1045487528344</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12687,23 +12698,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2X8LLHD.289.15LCY</t>
+          <t>6PSP.289.15LCY</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H79" t="n">
         <v>203.2</v>
       </c>
       <c r="I79" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
@@ -12718,23 +12729,23 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1TJT.145.15LCY</t>
+          <t>2X8LLHD.289.15LCY</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H80" t="n">
         <v>203.2</v>
       </c>
       <c r="I80" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J80" t="inlineStr"/>
     </row>
@@ -12749,23 +12760,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JT23.145.15LCY</t>
+          <t>1TJT.145.15LCY</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G81" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H81" t="n">
         <v>203.2</v>
       </c>
       <c r="I81" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
@@ -12780,23 +12791,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JT23C.145.15LCY</t>
+          <t>JT23.145.15LCY</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H82" t="n">
         <v>203.2</v>
       </c>
       <c r="I82" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J82" t="inlineStr"/>
     </row>
@@ -12811,23 +12822,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2TB.145.15LCY</t>
+          <t>JT23C.145.15LCY</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H83" t="n">
         <v>203.2</v>
       </c>
       <c r="I83" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
@@ -12842,7 +12853,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>2TB.145.15LCY</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -12852,13 +12863,13 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H84" t="n">
         <v>203.2</v>
       </c>
       <c r="I84" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J84" t="inlineStr"/>
     </row>
@@ -12873,23 +12884,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H85" t="n">
         <v>203.2</v>
       </c>
       <c r="I85" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -12904,28 +12915,23 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H86" t="n">
         <v>203.2</v>
       </c>
       <c r="I86" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J86" t="inlineStr"/>
     </row>
@@ -12940,7 +12946,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -12951,17 +12957,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H87" t="n">
         <v>203.2</v>
       </c>
       <c r="I87" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J87" t="inlineStr"/>
     </row>
@@ -12976,7 +12982,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -12987,17 +12993,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H88" t="n">
         <v>203.2</v>
       </c>
       <c r="I88" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J88" t="inlineStr"/>
     </row>
@@ -13012,7 +13018,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -13023,17 +13029,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H89" t="n">
         <v>203.2</v>
       </c>
       <c r="I89" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J89" t="inlineStr"/>
     </row>
@@ -13048,7 +13054,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -13059,17 +13065,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H90" t="n">
         <v>203.2</v>
       </c>
       <c r="I90" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J90" t="inlineStr"/>
     </row>
@@ -13084,28 +13090,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H91" t="n">
         <v>203.2</v>
       </c>
       <c r="I91" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J91" t="inlineStr"/>
     </row>
@@ -13120,61 +13126,66 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Pack 44 Filler Material</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>533.4</v>
+        <v>508</v>
       </c>
       <c r="H92" t="n">
         <v>203.2</v>
       </c>
       <c r="I92" t="n">
-        <v>269.9566802721088</v>
+        <v>268.6868390022676</v>
       </c>
       <c r="J92" t="inlineStr"/>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>SO-1013210</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>6VR.145.15LNW</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>8</v>
-      </c>
-      <c r="G94" t="n">
-        <v>406.4</v>
-      </c>
-      <c r="H94" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="I94" t="n">
-        <v>153.4940952380952</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SO-1013166</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>508</v>
+      </c>
+      <c r="H93" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>268.6868390022676</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13187,23 +13198,23 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2SS.145.15LNW</t>
+          <t>6VR.145.15LNW</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G95" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H95" t="n">
         <v>177.8</v>
       </c>
       <c r="I95" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J95" t="inlineStr"/>
     </row>
@@ -13218,7 +13229,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1TJT.145.15LNW</t>
+          <t>2SS.145.15LNW</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -13228,13 +13239,13 @@
         <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H96" t="n">
         <v>177.8</v>
       </c>
       <c r="I96" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J96" t="inlineStr"/>
     </row>
@@ -13249,23 +13260,23 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>JT23.145.15LNW</t>
+          <t>1TJT.145.15LNW</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H97" t="n">
         <v>177.8</v>
       </c>
       <c r="I97" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J97" t="inlineStr"/>
     </row>
@@ -13280,23 +13291,23 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>JT23C.145.15LNW</t>
+          <t>JT23.145.15LNW</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H98" t="n">
         <v>177.8</v>
       </c>
       <c r="I98" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J98" t="inlineStr"/>
     </row>
@@ -13311,23 +13322,23 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2TB.145.15LNW</t>
+          <t>JT23C.145.15LNW</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H99" t="n">
         <v>177.8</v>
       </c>
       <c r="I99" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -13342,23 +13353,23 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2TB.145.15LNW</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H100" t="n">
         <v>177.8</v>
       </c>
       <c r="I100" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
@@ -13373,28 +13384,23 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H101" t="n">
         <v>177.8</v>
       </c>
       <c r="I101" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J101" t="inlineStr"/>
     </row>
@@ -13409,7 +13415,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -13420,17 +13426,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H102" t="n">
         <v>177.8</v>
       </c>
       <c r="I102" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
@@ -13445,7 +13451,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -13456,17 +13462,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H103" t="n">
         <v>177.8</v>
       </c>
       <c r="I103" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
@@ -13481,7 +13487,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -13492,17 +13498,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H104" t="n">
         <v>177.8</v>
       </c>
       <c r="I104" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J104" t="inlineStr"/>
     </row>
@@ -13517,7 +13523,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -13528,17 +13534,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H105" t="n">
         <v>177.8</v>
       </c>
       <c r="I105" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J105" t="inlineStr"/>
     </row>
@@ -13553,28 +13559,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H106" t="n">
         <v>177.8</v>
       </c>
       <c r="I106" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J106" t="inlineStr"/>
     </row>
@@ -13589,61 +13595,66 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Pack 44 Filler Material</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>406.4</v>
+        <v>381</v>
       </c>
       <c r="H107" t="n">
         <v>177.8</v>
       </c>
       <c r="I107" t="n">
-        <v>153.4940952380952</v>
+        <v>152.224253968254</v>
       </c>
       <c r="J107" t="inlineStr"/>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>SO-1013111</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>6VR.289.15DWO</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>5</v>
-      </c>
-      <c r="E109" t="n">
-        <v>8</v>
-      </c>
-      <c r="G109" t="n">
-        <v>584.2</v>
-      </c>
-      <c r="H109" t="n">
-        <v>228.6</v>
-      </c>
-      <c r="I109" t="n">
-        <v>482.2967664399093</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SO-1013210</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>381</v>
+      </c>
+      <c r="H108" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="I108" t="n">
+        <v>152.224253968254</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13656,11 +13667,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6V.289.15ISL</t>
+          <t>6VR.289.15DWO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -13687,14 +13698,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JT23.145.15DWO</t>
+          <t>6V.289.15ISL</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G111" t="n">
         <v>584.2</v>
@@ -13718,7 +13729,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>JT23.145.15ISL</t>
+          <t>JT23.145.15DWO</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -13749,14 +13760,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2COR1.145.15ISL</t>
+          <t>JT23.145.15ISL</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
         <v>584.2</v>
@@ -13780,14 +13791,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>2COR1.145.15ISL</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114" t="n">
         <v>584.2</v>
@@ -13811,14 +13822,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>JT23C.145.15DWO</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
         <v>584.2</v>
@@ -13842,14 +13853,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2TB.145.15DWO</t>
+          <t>JT23C.145.15DWO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
         <v>584.2</v>
@@ -13873,11 +13884,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2FR.145.15DWO</t>
+          <t>2TB.145.15DWO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -13904,14 +13915,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2COR2.145.15ISL</t>
+          <t>2FR.145.15DWO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
         <v>584.2</v>
@@ -13935,14 +13946,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2COR2.145.15ISL</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G119" t="n">
         <v>584.2</v>
@@ -13966,19 +13977,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
         <v>584.2</v>
@@ -14002,7 +14008,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -14013,7 +14019,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -14038,7 +14044,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -14049,7 +14055,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -14074,7 +14080,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -14085,7 +14091,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -14110,7 +14116,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -14121,7 +14127,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -14146,18 +14152,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -14182,18 +14188,18 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Pack 62 Filler Material</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -14207,36 +14213,41 @@
       </c>
       <c r="J126" t="inlineStr"/>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SO-1013148</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>35</v>
-      </c>
-      <c r="E128" t="n">
-        <v>8</v>
-      </c>
-      <c r="G128" t="n">
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SO-1013111</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Pack_62Filler</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Pack 62 Filler Material</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
         <v>584.2</v>
       </c>
-      <c r="H128" t="n">
-        <v>584.1999999999999</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1833.95166893424</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="I127" t="n">
+        <v>482.2967664399093</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14249,14 +14260,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G129" t="n">
         <v>584.2</v>
@@ -14280,11 +14291,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -14311,14 +14322,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E131" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
         <v>584.2</v>
@@ -14342,19 +14353,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
         <v>584.2</v>
@@ -14378,7 +14384,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -14389,7 +14395,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -14414,7 +14420,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -14425,7 +14431,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -14450,7 +14456,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -14461,7 +14467,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -14486,7 +14492,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -14497,7 +14503,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -14522,18 +14528,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -14554,27 +14560,32 @@
         </is>
       </c>
       <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Pack_Pad_19_3680</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
         <v>2</v>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>6VR.289.15LBB</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>10</v>
-      </c>
       <c r="E138" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+        </is>
       </c>
       <c r="G138" t="n">
         <v>584.2</v>
       </c>
       <c r="H138" t="n">
-        <v>520.7</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="I138" t="n">
-        <v>960.5608072562358</v>
+        <v>1833.95166893424</v>
       </c>
       <c r="J138" t="inlineStr"/>
     </row>
@@ -14589,11 +14600,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3V.145.15LBB</t>
+          <t>6VR.289.15LBB</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -14620,14 +14631,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>JT23.145.15LBB</t>
+          <t>3V.145.15LBB</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G140" t="n">
         <v>584.2</v>
@@ -14651,11 +14662,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL</t>
+          <t>JT23.145.15LBB</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -14682,14 +14693,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>JT23C.145.15LBB</t>
+          <t>2BA.145.15OBL</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
         <v>584.2</v>
@@ -14713,14 +14724,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2TB.145.15LBB</t>
+          <t>JT23C.145.15LBB</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E143" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G143" t="n">
         <v>584.2</v>
@@ -14744,14 +14755,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>2TB.145.15LBB</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E144" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
         <v>584.2</v>
@@ -14775,14 +14786,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2FR.145.15LBB</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G145" t="n">
         <v>584.2</v>
@@ -14806,19 +14817,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>2FR.145.15LBB</t>
         </is>
       </c>
       <c r="D146" t="n">
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
         <v>584.2</v>
@@ -14842,7 +14848,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -14853,7 +14859,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -14878,7 +14884,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -14889,7 +14895,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14914,7 +14920,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -14925,7 +14931,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14950,7 +14956,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -14961,7 +14967,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14986,18 +14992,18 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -15022,18 +15028,18 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Pack 44 Filler Material</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -15047,36 +15053,41 @@
       </c>
       <c r="J152" t="inlineStr"/>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SO-1013122</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>1</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>6VR.289.15IRW</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>8</v>
-      </c>
-      <c r="G154" t="n">
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SO-1013148</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
         <v>584.2</v>
       </c>
-      <c r="H154" t="n">
-        <v>228.6</v>
-      </c>
-      <c r="I154" t="n">
-        <v>498.6188117913832</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>520.7</v>
+      </c>
+      <c r="I153" t="n">
+        <v>960.5608072562358</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15089,11 +15100,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>6VR.145.15IRW</t>
+          <t>6VR.289.15IRW</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -15120,14 +15131,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2SS.145.15ISL</t>
+          <t>6VR.145.15IRW</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G156" t="n">
         <v>584.2</v>
@@ -15151,14 +15162,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>JT23.145.15IRW</t>
+          <t>2SS.145.15ISL</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G157" t="n">
         <v>584.2</v>
@@ -15182,11 +15193,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>JT23.145.15ISL</t>
+          <t>JT23.145.15IRW</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -15213,14 +15224,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2COR1.145.15IRW</t>
+          <t>JT23.145.15ISL</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
         <v>584.2</v>
@@ -15244,14 +15255,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2FR.145.15ISL</t>
+          <t>2COR1.145.15IRW</t>
         </is>
       </c>
       <c r="D160" t="n">
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G160" t="n">
         <v>584.2</v>
@@ -15275,14 +15286,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2COR2.145.15IRW</t>
+          <t>2FR.145.15ISL</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
         <v>584.2</v>
@@ -15306,14 +15317,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>2COR2.145.15IRW</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G162" t="n">
         <v>584.2</v>
@@ -15337,19 +15348,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="G163" t="n">
         <v>584.2</v>
@@ -15373,7 +15379,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -15384,7 +15390,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -15409,7 +15415,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -15420,7 +15426,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15445,7 +15451,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -15456,7 +15462,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15481,7 +15487,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -15492,7 +15498,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -15517,18 +15523,18 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15553,18 +15559,18 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Pack 44 Filler Material</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15578,36 +15584,41 @@
       </c>
       <c r="J169" t="inlineStr"/>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SO-1013129</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>6VR.145.15WCD</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>5</v>
-      </c>
-      <c r="E171" t="n">
-        <v>8</v>
-      </c>
-      <c r="G171" t="n">
-        <v>406.3999999999999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="I171" t="n">
-        <v>168.5552698412698</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SO-1013122</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Pack_44Filler</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Pack 44 Filler Material</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="H170" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="I170" t="n">
+        <v>498.6188117913832</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -15620,23 +15631,23 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CLIP.N100</t>
+          <t>6VR.145.15WCD</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E172" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G172" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H172" t="n">
         <v>177.8</v>
       </c>
       <c r="I172" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J172" t="inlineStr"/>
     </row>
@@ -15651,28 +15662,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>CLIP.N100</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="G173" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H173" t="n">
         <v>177.8</v>
       </c>
       <c r="I173" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J173" t="inlineStr"/>
     </row>
@@ -15687,7 +15693,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -15698,17 +15704,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H174" t="n">
         <v>177.8</v>
       </c>
       <c r="I174" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J174" t="inlineStr"/>
     </row>
@@ -15723,7 +15729,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -15734,17 +15740,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H175" t="n">
         <v>177.8</v>
       </c>
       <c r="I175" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J175" t="inlineStr"/>
     </row>
@@ -15759,7 +15765,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -15770,17 +15776,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H176" t="n">
         <v>177.8</v>
       </c>
       <c r="I176" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J176" t="inlineStr"/>
     </row>
@@ -15795,7 +15801,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -15806,17 +15812,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H177" t="n">
         <v>177.8</v>
       </c>
       <c r="I177" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J177" t="inlineStr"/>
     </row>
@@ -15831,28 +15837,28 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H178" t="n">
         <v>177.8</v>
       </c>
       <c r="I178" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J178" t="inlineStr"/>
     </row>
@@ -15867,28 +15873,28 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Pack 62 Filler Material</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>406.3999999999999</v>
+        <v>279.4</v>
       </c>
       <c r="H179" t="n">
         <v>177.8</v>
       </c>
       <c r="I179" t="n">
-        <v>168.5552698412698</v>
+        <v>147.2396507936508</v>
       </c>
       <c r="J179" t="inlineStr"/>
     </row>
@@ -15913,13 +15919,13 @@
         <v>8</v>
       </c>
       <c r="G181" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H181" t="n">
         <v>177.8</v>
       </c>
       <c r="I181" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J181" t="inlineStr"/>
     </row>
@@ -15938,19 +15944,19 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
         <v>100</v>
       </c>
       <c r="G182" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H182" t="n">
         <v>177.8</v>
       </c>
       <c r="I182" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J182" t="inlineStr"/>
     </row>
@@ -15980,13 +15986,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H183" t="n">
         <v>177.8</v>
       </c>
       <c r="I183" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J183" t="inlineStr"/>
     </row>
@@ -16016,13 +16022,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H184" t="n">
         <v>177.8</v>
       </c>
       <c r="I184" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J184" t="inlineStr"/>
     </row>
@@ -16052,13 +16058,13 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H185" t="n">
         <v>177.8</v>
       </c>
       <c r="I185" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J185" t="inlineStr"/>
     </row>
@@ -16088,13 +16094,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H186" t="n">
         <v>177.8</v>
       </c>
       <c r="I186" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J186" t="inlineStr"/>
     </row>
@@ -16124,13 +16130,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H187" t="n">
         <v>177.8</v>
       </c>
       <c r="I187" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J187" t="inlineStr"/>
     </row>
@@ -16160,13 +16166,13 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H188" t="n">
         <v>177.8</v>
       </c>
       <c r="I188" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J188" t="inlineStr"/>
     </row>
@@ -16191,13 +16197,13 @@
         <v>8</v>
       </c>
       <c r="G190" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H190" t="n">
         <v>177.8</v>
       </c>
       <c r="I190" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J190" t="inlineStr"/>
     </row>
@@ -16216,19 +16222,19 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E191" t="n">
         <v>100</v>
       </c>
       <c r="G191" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H191" t="n">
         <v>177.8</v>
       </c>
       <c r="I191" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J191" t="inlineStr"/>
     </row>
@@ -16258,13 +16264,13 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H192" t="n">
         <v>177.8</v>
       </c>
       <c r="I192" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J192" t="inlineStr"/>
     </row>
@@ -16294,13 +16300,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H193" t="n">
         <v>177.8</v>
       </c>
       <c r="I193" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J193" t="inlineStr"/>
     </row>
@@ -16330,13 +16336,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H194" t="n">
         <v>177.8</v>
       </c>
       <c r="I194" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J194" t="inlineStr"/>
     </row>
@@ -16366,13 +16372,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H195" t="n">
         <v>177.8</v>
       </c>
       <c r="I195" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J195" t="inlineStr"/>
     </row>
@@ -16402,13 +16408,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H196" t="n">
         <v>177.8</v>
       </c>
       <c r="I196" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J196" t="inlineStr"/>
     </row>
@@ -16438,13 +16444,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>228.6</v>
+        <v>177.8</v>
       </c>
       <c r="H197" t="n">
         <v>177.8</v>
       </c>
       <c r="I197" t="n">
-        <v>174.5412380952381</v>
+        <v>170.7317142857143</v>
       </c>
       <c r="J197" t="inlineStr"/>
     </row>
